--- a/export/sw_compare_result.xlsx
+++ b/export/sw_compare_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,21 +508,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0311f0a7-b74c-46db-ba8a-d65a1341fe78.wav</t>
+          <t>02e6e0a2-14cb-4fe1-aa00-f87a7d4cf8eb.wav</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.13225205</v>
+        <v>0.14727624</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02e6e0a2-14cb-4fe1-aa00-f87a7d4cf8eb.wav</t>
+          <t>0311f0a7-b74c-46db-ba8a-d65a1341fe78.wav</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.14727624</v>
+        <v>0.13225205</v>
       </c>
     </row>
     <row r="10">
@@ -538,11 +538,9911 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>040f7a2f-43f6-46c2-88b2-6e0989bd9eb3.wav</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.14863256</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>046cd4fe-beaf-487c-9d45-52cbbc86c0cf.wav</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.08248833999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>04e1dc3a-8128-4085-97fd-6ab383e2268a.wav</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.087563865</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>034d0ae4-7e3a-46fd-8319-1e996e3c6817.wav</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B14" t="n">
         <v>0.10300902</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>06c3fe0f-845c-4644-b945-f7f6049a7c70.wav</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.08532798</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>047d017c-46b6-4f5f-93eb-79e296fe1c64.wav</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.09136956</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>074e0d97-dbcd-4b6a-b1ff-593df707c1a3.wav</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.110829845</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07be144c-a426-4acf-83ca-2662bd3d8648.wav</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.10994394</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>068bbe5a-4374-45c6-a7b2-d39c3ec1ce16.wav</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.11332955</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>040595ae-214f-40c4-ab76-dcebaf7c8b3b.wav</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1475702</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>088e8e17-93e3-48a2-9a95-7d53bf364b54.wav</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.09860468999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>08d6ebd6-df30-44fc-9e5f-9f17970a375d.wav</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.12045288</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>083dad75-e641-4e77-80e3-ad9e21b13df1.wav</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.20340998</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>08ff4de3-2304-497e-bca7-f8e8354c96ba.wav</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.09748772999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0a3ec514-5272-4286-900f-6c37c8296bcd.wav</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1339324</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>08fc3f1d-6f64-4b02-9ebe-888bcd590abd.wav</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.09814985</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>094590bc-45f3-42fd-9600-cb258dd86602.wav</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.09267686</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0a800476-680f-4a2c-914d-485110e48e28.wav</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.087587915</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>07c1fe4e-2e1b-4973-b97e-ad10b5a7bdec.wav</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.14216188</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0a4f525a-4ae6-45e9-a514-221c30eb600b.wav</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.18225113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0b54436d-38be-4ca9-af9f-63ff9c075563.wav</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.06537375600000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0ed608a4-5d03-4529-a180-29c91c915bd1.wav</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.09229697000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0f2d3af0-aca3-420f-ae82-e78b41426014.wav</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.2554927</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0e79aa02-e39a-4935-9f99-80d3fa520555.wav</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.10405319</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0e695328-97d5-43e5-adf6-b6c4c870f29d.wav</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.10471175</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0c60819b-060a-4bb5-bdfb-4516dc3c0d85.wav</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.066828765</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>103223d2-34e9-46e2-ae22-1965479fb219.wav</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.106915906</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>102e9a54-aad2-4d8c-93ea-cefd838de7b3.wav</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.16009066</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0f5e1c10-e595-4787-a14a-dd5d5918cde7.wav</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.115553334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10794b1a-23a6-41ab-ba44-e40ab72b8846.wav</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.058010656</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>10a4eea7-14a6-4381-9f71-578b88af1c53.wav</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.13412994</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>10c0b474-b12c-464a-adfa-fd4ab23c6e6a.wav</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0811453</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>121a4234-2978-4786-bb39-c02d5172b44d.wav</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.11577863</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>122e28fc-71ea-438b-8ab0-bd64da0b66ef.wav</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.06298943</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0fd0d979-8f15-4d8a-9868-afa9f5b277fe.wav</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.08217267</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>12f95a2b-efe2-4a9f-a8ae-b6827b5ac7e3.wav</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.09461189</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>130c25c4-1b0f-44e5-8963-4844a4ccc809.wav</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.07951612</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>127027c1-b171-4b10-83b4-67632cc427fa.wav</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.17823155</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>133fd988-c270-4443-8ddd-1a96547976fd.wav</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.15406393</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>14eb22c6-613c-4aca-beba-fed328da214d.wav</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.20155028</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1547896c-01e3-4a55-981d-dabfd099f5a4.wav</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.09339943000000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1552c3bc-d8f3-4c74-bef5-3f8bbae362ad.wav</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.13771875</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>156cd336-8f43-43de-af94-124215bdbb3d.wav</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.31416166</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>16725a7e-c22c-4e9a-aa7c-055be0dd6c80.wav</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.10954289</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>15c7e44a-1107-443d-895e-73b2ad434056.wav</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.14209893</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>170661d1-8626-4e43-863f-3c973d205b10.wav</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.09485209999999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>16e9a098-abaf-443d-8fe5-45e509a325f2.wav</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1970544</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1694575a-571f-46ef-9cf2-c0537ae8e0c1.wav</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.051712375</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>174edcd4-ed76-4f7b-89b1-21823a05ee9a.wav</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.10159662</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>17c70d27-67c0-4810-aa72-4ec66b2b4b50.wav</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.11309902</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>188169be-2bff-4296-ae93-7bef9483423b.wav</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.1250755</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1911fcd4-d8f8-4279-9d46-73d86d0e5f21.wav</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1015471</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1a07bfdd-264d-4334-befb-c21e37f32c59.wav</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.08126944</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>18587f32-1345-4baf-92ab-45c936ef4f32.wav</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.10700795</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>197ba581-e5ef-4b59-96d5-d33067e05d2b.wav</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.14916216</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>190ad725-7d4d-4c0e-8d85-d1607cf04834.wav</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.09518950399999999</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1aad17db-079c-49c8-89c7-2286a9fbccfb.wav</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.106609814</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1b82f1a9-9a21-4c64-a7c1-a9f62daa9efc.wav</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.113230065</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>192c8dad-3b7a-43c9-b993-ce29f5cc447e.wav</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.064274654</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1bdad3b7-4a69-4dd4-8aa8-56bf2d28667a.wav</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.16162586</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1abaa1d5-70ae-40a8-95fd-40e94c6e1657.wav</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.054008126</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1bf2f06d-9926-4fba-86a6-9a409e0820de.wav</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.08837815</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1b39d194-c445-4ea6-aeb3-2af76da19a3c.wav</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.21604967</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1bdaeb35-5935-4f11-b4d8-298e1031534c.wav</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.11940707</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1c3e200a-26d5-4031-ba6f-47670e3e47fc.wav</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1612018</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1ca6bd69-1f6d-4b2c-b8cd-be84f3097efb.wav</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.069815874</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1cad1ce6-33ff-4aad-afe4-f4ad622353ae.wav</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.08145862</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1ce4f3db-499c-42cb-915c-0e66d2c3a28f.wav</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.13061598</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1b45ea69-81ca-4301-b652-a87f47925556.wav</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.15258479</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1d2afa35-8819-498b-872c-966585473a2c.wav</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.090337895</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1d40cbd1-6ab9-4a2e-b353-005384222b6d.wav</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.11077154</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1d4579ed-f947-4041-9b54-72fd5611002c.wav</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.11336498</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1bc144b9-7fda-40c1-bf27-190d3cc48012.wav</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.08677395</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1d8ea9c0-de1e-4f7a-b18e-fe1bcf03e208.wav</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.099236965</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1e07d836-dc54-4f88-9364-dddc18b6c323.wav</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.08620997499999999</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1f023fc2-7636-4257-9704-3a9596e96c4a.wav</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.12339945</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1c006e59-9e87-476d-a619-f5f029aecff7.wav</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.10564435</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1f10c5ea-0a41-4ef9-baee-974fc6293a46.wav</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.0906354</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1f5ac1df-d979-4691-834e-febde5a1698f.wav</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.108732335</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1fa4d8c8-fbbe-4e16-ac18-5bf9f2feb0a4.wav</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.11988303</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1d8e7286-15f3-45fa-8e30-faebed76c91a.wav</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.13748933</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1f6222df-07e0-45f0-b163-afe880429e33.wav</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.11938006</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1ff5de1d-758d-4bbf-8bd1-978a6b3e6a4a.wav</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.113984466</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2048e38b-7f0e-410c-bc90-fd329d5a11cf.wav</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.1218729</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2046dab7-8c33-44d4-a54e-82ccc5ad036e.wav</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.10165748</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1fabd181-b7cc-4367-ae5d-be9dde631c8c.wav</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.092742376</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>207e494b-3387-4de2-a614-411b379e253b.wav</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.12534991</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2087c1a4-81ef-4813-ae19-a5fc3ccd1897.wav</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.07356751</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1fc96193-0c74-4275-aaf2-58af75129a94.wav</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.13488616</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>220b1a70-e8fa-4f00-9147-7d59f7f4011e.wav</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.1366627</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>212ce590-892b-4b39-96e8-2b2b007118a7.wav</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.118077114</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>22072b33-b432-49ca-8611-431c7fb495ae.wav</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.058005527</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2274c49f-6a67-4cbf-a251-59c1c87fbe0d.wav</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.21800035</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>22b60b8d-9846-4f97-a9f8-94bea8a17028.wav</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.06582297400000001</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>207c7ed5-c0c2-415f-8f83-47c04c1128f3.wav</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.17465493</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2243ce19-61de-40e3-a2dd-136058574e7c.wav</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.09753355399999999</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>232145a7-e39e-4806-9818-ce6de6ce5cf8.wav</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.07931226</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>22dc1bf4-67de-4639-85df-1441d93899dc.wav</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.08666131000000001</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>23f1cd77-f577-43dc-8e48-a58a95efd03a.wav</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.13744015</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2277ce3f-c611-4dab-9e94-9716333569c0.wav</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.07601102999999999</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>24007f88-6391-44f7-8cd1-d7e8453238c2.wav</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.16412114</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>253c9bb8-4bea-4297-8b9e-46ea08969226.wav</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.14509991</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2334422f-7c93-440a-a6df-455e7ac9a6e6.wav</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.09529622</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>25731cf4-cb2b-4754-bced-7ac9ad00ab15.wav</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.0314994</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>25b9d19c-e0a6-41b8-9323-a8c820d75f6e.wav</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.10580826</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>25db171b-d532-4de8-a3ff-f20863f0623e.wav</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.06382665</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>257fe148-8e57-4944-9ad8-5382956a6103.wav</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.16453932</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>23ad363e-d618-4c2d-8bf3-30f0e28d4562.wav</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.19089346</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>26f0bb6c-cc02-473d-a357-77bdfd9afb56.wav</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.15882358</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>27b30d59-eda1-4cd8-8887-41f62812f917.wav</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.20225632</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>26c86f07-eb24-41d7-943e-cf13967f16e0.wav</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.08021818</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2780acdd-6f19-4666-8ac1-eb3f5f439d16.wav</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.15514845</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>23f40890-312d-46e4-b4ba-d7cfe8edbdba.wav</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.15584776</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2815dc3c-2ac6-44d4-a7c9-d7055c7d6a54.wav</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.09271683999999999</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2855afb4-1b60-48c8-bce8-09f10ecbf322.wav</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.1328901</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2855204a-41aa-4108-af6f-ce3dfbbb454d.wav</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.091561526</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>245627fd-97f9-48db-8942-034789837e2d.wav</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.12949736</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>28aca90e-951f-400a-b74b-1ba96c04c5b0.wav</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.14364591</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>28e4653e-7f00-4152-bbc9-239f8cfca28d.wav</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.1087465</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2633575c-a6bf-4f58-8140-53446bf3b499.wav</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.08004022</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>29101d3e-8508-4456-ba2c-608f8c9a544f.wav</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.12057517</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>291d4bb5-812c-4a2b-8a56-2bf7b677acdf.wav</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.122902796</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>293a10ad-bbd3-42a0-adc2-0a2f7aabc3bd.wav</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.19670077</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>27b3de5f-f6ca-4a4e-8d7e-487690621f26.wav</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.09357254</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>29a8de83-4a17-454f-a8d5-6886021ff18b.wav</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.136797</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2ad03718-6a34-4967-ac2e-41bf48aefc66.wav</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.098550625</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>28e7530d-c871-4838-b4c7-bbdfff285cd5.wav</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.12584865</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2b1ab4cc-cda8-4cca-b7d0-0245e70231ce.wav</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.015895523</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2adb39e2-dee5-4cfd-b847-fe08f445f123.wav</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.16615343</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>29fdb903-a57d-424b-a1dd-9c62a7ff24c8.wav</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.11033929</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2b555f1a-8138-4a33-8d1c-0669141e1228.wav</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.07474712999999999</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>29559714-863b-43bc-b52b-4031f48499c2.wav</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.14180055</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>285c1cb7-47bd-4e13-8726-0f4472cd5254.wav</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.15976314</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2bf3e920-129b-4a6d-a8f2-2f2a07f52f6c.wav</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.04092712</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2d3befda-2c39-45ed-8e3d-8690ea9a3161.wav</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.10701075</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2d5fd42a-b05c-4a84-8ca2-2d8b003a4bd3.wav</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.1625518</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2cb92a52-d895-4ef3-ae76-e09ec4e68d5e.wav</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.11782114</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2962a4e1-de9a-4e24-8c54-ce962d772c34.wav</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.122875705</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2dfe27d4-751c-4e07-98c5-74a0f86d8059.wav</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.12246767</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2e2a0ee0-00c7-4d8a-9610-e0a5e47d1475.wav</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.11295977</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2df9adf3-8fea-4ed9-9601-c3bbde6d7ba1.wav</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.06431812000000001</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2e50639f-5174-4feb-9e11-3ae9bd1c784b.wav</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.14063811</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2e443f77-eea1-40f3-8a6e-63ddcc118abf.wav</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.10172256</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2f54c1af-2824-442e-8f36-23b2a6e9f69a.wav</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.09333542</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2fcd674f-23fa-45a4-a27d-c3b46677c98f.wav</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.08909699</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2eca9385-b25f-40c6-89e2-338b3c127f04.wav</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.065073274</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>3000d061-d25d-44b3-9008-4ecfb154045a.wav</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.08397528999999999</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>301feb58-a30a-4cdc-9310-4bb3e3009942.wav</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.07878332</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>30213f1c-84e5-4004-9f24-db9298935602.wav</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.060529247</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2f902641-0eff-4f5f-81d0-58e6af130e81.wav</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.057770945</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>30e03a1f-44f1-4a1a-915e-b9909357ed5f.wav</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.104021505</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2ff6489c-560f-4b40-bad8-9b96db34b63d.wav</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.16930078</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2ff2654a-f84c-42bf-bdf4-ac50b98473ef.wav</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.17329292</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>31397f86-515b-4a7e-86bf-c4a90e8528bc.wav</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.11404778</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>3118f6e1-c365-4548-806b-65dfa557376d.wav</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.18757719</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>303f8dba-375d-4a72-a828-cd99048d152b.wav</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.10548636</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>315f6397-dbf7-4569-9dae-3b882e8af67b.wav</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.055147707</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>30d1a532-e72b-4968-bb59-a53234f617ff.wav</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.10319267</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>312e2278-858d-45ff-ac6f-28822f3516cb.wav</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.0722228</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>3236e4bc-72c0-4456-9e71-c519117265bf.wav</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.08367521999999999</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>3263bddd-bfec-48f6-9e05-f35c631882dc.wav</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.07239761</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>30e35529-358c-48b9-9360-d2d5ac1b4645.wav</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.1357619</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>31c57d5a-2baa-46f5-aae7-63e271e43227.wav</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.059563976</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>32370986-a4ab-47ef-940d-500d730e85d3.wav</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.09836723999999999</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>349cb146-34d3-4813-8307-07dde21021ff.wav</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.09536345</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>33c5a22c-61ed-4883-8a7a-f19c08509ea1.wav</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.09646253</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>320229c3-9661-4b29-99c3-6662a1615bb7.wav</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.11988023</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>341a2707-3824-419f-8d2a-b10313f18c75.wav</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.09934113999999999</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>328837d6-a26d-4993-a148-04efcd2184f8.wav</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.147736</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>33e77742-c2b2-4ca3-8411-520618c2f24f.wav</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.22767535</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>3677d44a-c8c7-4374-9fa2-e6a5bae96c03.wav</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.13693732</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>3619f956-d47f-460f-8163-07c86e2fc72c.wav</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.16939117</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>34601472-d4c9-4ad7-8a1a-341a5b29c738.wav</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.09268281</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>34b8f467-4a17-4c1e-aba0-463c808518b7.wav</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.10773985</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>380c65ed-bfaf-4a82-9e61-06c5e8c0ecd9.wav</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.16767263</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>386e1f97-1042-4c21-8f32-1adc28c03a60.wav</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.09429885</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>373139db-4496-4567-b383-dc45a4590a87.wav</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.12891744</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>34a4c6c4-6009-471b-91cb-150414688ac0.wav</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.117519</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>392de78b-1ba6-43fc-8914-39270a16e76c.wav</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.19682689</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>3854f1d4-9a0e-4f94-afb7-8e02e581b6da.wav</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.092865884</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>391e945a-af38-4adc-be4c-76f3ad8c1852.wav</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.18400306</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>3956ce1d-5930-4115-8379-d869ce3da006.wav</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.10785005</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>34bf06de-9111-452d-8bb4-e617e7140c70.wav</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.16573216</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>39feb777-d50b-4696-aac1-edf2fc826242.wav</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.16741966</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>39b17f55-9c1f-463c-8b62-4e86647ce423.wav</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.10046763</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>3a2376c2-e506-46e4-a556-41f2721d6ff8.wav</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.08883315999999999</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>3a7fe658-25aa-4af3-8c9e-ed96d6e863d7.wav</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0.08985091000000001</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>35e89328-31fd-4423-9241-fc03eb49756a.wav</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0.18480207</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>3b3b5c29-ae0e-465c-85ed-beb1267f63a0.wav</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.104346916</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>3b5d6dbb-e618-4329-bb0b-f1aa4f281683.wav</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.15419888</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>3a31c61d-5c5f-4cf4-a6bb-8785fc436894.wav</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0.05845357</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>38fcd3f3-84fb-4df0-af07-a35378d0faf3.wav</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0.103305936</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>3a82e7e2-18c4-4676-98c8-414d19303de7.wav</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0.06343755</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>3d19b013-dd4f-483a-b0c8-36a2b9b4fa50.wav</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.113373004</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>39d5b262-2145-40b9-9b9c-0d8c2f36dcb4.wav</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.17978647</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>3dea0800-3be6-40c8-8307-0780b8bb8749.wav</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.21878138</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>3cab0123-4ff8-49c9-ba2c-3ae48bdf3472.wav</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.12818655</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>39a29fa6-eb3d-4953-911d-93a0fd61efaf.wav</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.10897052</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>3d38ed77-11cf-492d-bffe-3d067c4b02fc.wav</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.121843524</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>3e3b8f3a-33de-48d7-bfd3-3ebad0975304.wav</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.10416291</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>3ec8e352-599c-49b0-aa33-d45f914aecf6.wav</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.078423835</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>3f56ecbe-3bb2-4f4f-97cf-3f4ec8d68186.wav</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.16074914</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>3d9c46a1-9f43-4b3e-a091-a37d91795757.wav</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0.1854244</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>3fda89c6-a44a-4463-bbf2-e341f4f2428c.wav</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0.1333347</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>3ff1538d-2b8d-4e4c-8895-22dcc78b983f.wav</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0.09012681</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>400bcfc7-7473-4eb6-9a71-86056530e07a.wav</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.16966087</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>3dfdca3f-752a-4257-8a24-0a31f2fb94d1.wav</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.07481406</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>41b4953f-9bde-4d0c-9546-80c957d6bbe9.wav</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.046434123</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>40368cb1-4998-49f0-8ada-ec4341131f09.wav</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.09090028</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>41a11bc8-49cc-45be-b7a1-3fa86845f560.wav</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0.13968939</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>42e8dd44-57b3-4ed7-9374-6f18ddfce836.wav</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.07895887</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>422ce860-380d-4a69-bba6-9eb2392cdad7.wav</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0.12515871</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>42ecd25a-46f6-4793-8477-7ff79be2e18d.wav</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0.12819716</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>417d49ee-5356-4ee2-8cda-787d5b5afb2e.wav</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0.12276974</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>4307658d-4317-448f-97a1-ae1370cfbca8.wav</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.062706925</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>43502544-e388-415f-9d13-951ceaf9cc45.wav</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0.07875053</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>4431c7ac-8b6d-45ab-9cd6-2f3b06413220.wav</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0.12814632</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>41c42c6e-da4b-488c-a4d4-c04f7379bbb8.wav</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0.06273389</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>43b173a8-30c3-4aa3-8652-6ce92cb9c168.wav</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0.076711945</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>460dccf7-4a79-4fee-9497-e8ba52b4d1b6.wav</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0.10095082</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>4699fafc-6094-46df-9d25-24f18e8da065.wav</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0.07322979</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>43c044a7-4ed6-4cfc-b6a5-68b4043897e8.wav</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0.12224363</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>443a3a3d-51bd-4d15-8ab6-2cb36a98ce2b.wav</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0.16458079</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>46691af8-3cc1-4ea0-8598-d1667f282430.wav</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.091601804</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>46e7a45c-79dc-48b9-a45d-0605b2d94535.wav</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.15842359</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>47d68bf6-0e7b-4c5d-bafc-062957d6a777.wav</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.1121978</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>47b2d280-4ed9-4272-bb6d-d293a795c694.wav</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0.10297328</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>454f814f-306d-4b20-933c-323b07b18c46.wav</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.21753612</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>4722891c-a1c9-4438-a416-ece52504d00d.wav</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.07595824499999999</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>487c551c-809b-436f-a4bf-6e2491c28dc9.wav</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.06996496000000001</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>481e2d57-98b9-4c82-acbc-15d6e8566c49.wav</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.10162695</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>48bbea12-5725-415f-858b-b047108cd72c.wav</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0.09602235000000001</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>4938cbf1-db00-4090-be1d-4c78bb6076ac.wav</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.10799171</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>47ec7ede-6755-413d-8132-80b11318e360.wav</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.10353173</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>499efd21-0f97-45fb-b411-8439d3ab2034.wav</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0.060779795</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>4a6365cd-78f8-41d5-9a17-55b48309eaf0.wav</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0.056408167</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>48e34d6d-9644-434f-ace3-fc23928a78dd.wav</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.05336512</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>4abee396-c97b-47a1-809e-ee8be84fccbd.wav</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0.13786073</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>4c015525-4ff9-4c64-a452-ef989a72a603.wav</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0.11947096</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>4b829fc9-6fbe-41f0-b546-686dad257d8e.wav</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0.15827467</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>4a7a3625-93da-4cae-aa41-e5ac5c4262d6.wav</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0.12957555</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>4c978321-8c0d-4d0f-a6c9-19d6dab330da.wav</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0.09925547</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>4c0462c9-6158-4b99-9898-256283206c47.wav</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0.112342805</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>4d29f869-fa94-48c2-8ec6-abe0c971faf8.wav</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0.16295424</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>4ccf2bf6-ebe9-4601-84f2-cb61396e7a71.wav</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.15521209</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>4cebbb1d-c153-41c0-9c83-3e4f47dc8318.wav</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.07351997</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>4e078da5-44dc-4899-991e-c1085adb26e7.wav</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0.09371652499999999</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>4e076cfd-8000-4fa5-a4ab-2a1572998990.wav</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0.07304648</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>4e429824-4852-4477-b0fd-3e5765f97c55.wav</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0.07596314</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>4e20b86f-2407-42d3-a277-ede6d13cdc74.wav</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0.07795033</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>4eed2c26-a143-402b-a706-cb188db519de.wav</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0.044939674</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>4ea1ed11-ffdf-4b59-9e61-827b04e66025.wav</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.120486185</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>4f28dd07-34b1-4081-a351-ba6ed0a17d8f.wav</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0.06060583</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>4fcb4379-b55c-4971-bdcb-2103d41b29a8.wav</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0.0979831</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>50030d50-a8e6-4e41-b45c-338b50739e91.wav</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.12547007</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>4f3adb84-c0b6-498a-9b3e-a60db49836e8.wav</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>0.06409003000000001</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>5022218d-3868-40fa-9d7b-bb60dc35a40a.wav</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>0.096530095</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>4fb67910-9a21-48e6-92e3-e3ee602cf237.wav</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0.12092004</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>505c2f62-fc6a-4b4e-9e64-f6ca909bbbf5.wav</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0.09221171</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>50cf5814-33c9-4fc9-8ea8-b584af30db3b.wav</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0.06994864000000001</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>5158f979-0c9b-49c7-9d5d-84fa7f1595cf.wav</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>0.17590295</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>5206c24c-b5c4-4166-8415-b5f2247952a2.wav</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0.24310127</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>50e17a3d-8ffa-4cb8-b525-595d92b25860.wav</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>0.12966657</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>517a8872-a53e-48ee-a896-3dbc031fb221.wav</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0.032035366</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>501e8ff0-1080-4c03-a48d-7da7e683c0e9.wav</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0.052510023</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>52ace662-62d4-41ca-bde3-57f666858097.wav</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0.10698198</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>52d1c728-4c04-463c-921e-0158bfc2ec92.wav</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0.058075584</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>52f8964f-2d18-4cd5-b780-cdaf5e660248.wav</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0.062563956</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>5266e5ad-170c-4b86-93de-a81b5531d279.wav</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0.06969925</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>535ac099-4ba8-419e-b6e2-5f377f581dc6.wav</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0.14418076</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>53d13cf8-9950-4960-aba5-9e0dac4df76a.wav</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0.09641226</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>542b499a-a399-4b2e-b5d0-111d9661c531.wav</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0.08491981</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>542c28ac-6db1-42ee-a5ca-587b5e3e8249.wav</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>0.11685951</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>543d4b0d-e81a-4dcb-934c-ecd7be848ecf.wav</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.12648913</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>5450bc0b-ca1d-4593-b368-660b43ed1f24.wav</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.09228372</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>546da8bb-7dfd-4781-856f-e8875af626d0.wav</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0.11556458</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>547fc9b2-8e8d-43b2-8521-da81321f9a7b.wav</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0.103638284</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>554ee605-71c2-4801-996e-bd0d7f0db3c3.wav</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0.04252981</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>552849a7-3138-4d47-acb4-9b36f8684afb.wav</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0.063498095</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>559921e1-0b4c-4070-a3ed-104d2b43b0ce.wav</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0.20574018</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>560fc2fa-6361-43ff-a3cf-664bf0a9ca31.wav</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0.08513535</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>55f67a22-9e9c-45aa-8f29-91675f62e16b.wav</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0.0849968</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>55d3e732-d423-42d3-b4a7-25910eb5c31b.wav</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0.19625078</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>56bb864b-bd36-45cf-b06f-6c09ac43841d.wav</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>0.12446375</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>56573e38-1a75-49de-9a56-34180ac365dc.wav</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>0.15899007</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>56c04dc6-1d60-4403-bb77-0cb7fb863f07.wav</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0.15039483</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>5744937e-267c-44f6-ba06-d30643592b76.wav</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>0.10837461</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>57a8d491-480a-4513-a6c8-98f3e3e96633.wav</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0.15472439</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>57b5cf71-5efb-4bc6-8e6a-a5b3ea074b51.wav</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>0.092919946</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>56e5018d-3cff-47c8-abae-d8dbda942078.wav</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0.1375221</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>56df966d-833b-430e-9163-9c3205f02a15.wav</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0.15217154</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>58baeeab-3b0c-4d06-bd6b-164219e72fee.wav</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0.12215148</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>588b7872-0983-4aa8-8680-f93cc44a5be2.wav</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0.07835613</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>58098d33-21d3-43d0-a9aa-9d949d703b39.wav</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0.05328525</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>585ff128-0d9c-4177-9d99-8dff690f2d49.wav</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0.08360682999999999</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>571599e9-55eb-4838-a149-6352026a9ebd.wav</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0.11699709</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>59a7c8ec-9c54-499d-bd15-5e4fe766d499.wav</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0.03848846</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>5a74eb9d-d698-4dc7-a43c-2ffe66edcce2.wav</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>0.15427414</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>595aa8f7-e6a4-4a3b-8c1e-6cbd7fa9e6dc.wav</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0.0800091</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>5a75cdd7-30bf-4401-b543-ced427eaa6d6.wav</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0.073494844</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>577049ac-dc99-4779-8803-cf2c1367336a.wav</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0.0824669</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>5ad15ff0-e484-410d-a214-82fdbb40b531.wav</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0.10730124</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>5b58f642-44bd-48a3-8c64-b87e1c555458.wav</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0.06495656</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>5a8beeaf-5565-4e05-a06b-5c3a67eb489b.wav</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>0.13108267</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>5876c1cd-e8a0-43fa-8a45-179c8cbd8514.wav</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0.14825523</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>598f1212-a5b1-401a-b265-b3b0cf7a8bc8.wav</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0.19480716</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>5bd8f61e-7bb8-4d37-a3fa-6d50b884b72e.wav</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>0.08627701</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>5d363e43-0eee-4a47-beef-e67875c5ae75.wav</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0.1245608</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>5e19b7e5-ee88-40ac-a46a-10863d1025f2.wav</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0.13801084</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>5e2dde65-a221-4473-a1d8-5c1404bc5919.wav</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>0.13301007</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>5d1cfd6a-c911-4842-b80a-fff7a4849ea1.wav</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>0.09594005999999999</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>5e9650b5-0d19-41c7-a0ef-a657ec380ca3.wav</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>0.07070057</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>5ea264af-4598-408b-bade-7d6e52ade853.wav</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>0.12545222</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>5c81c486-0642-4b6f-8fad-4efb54d80b2e.wav</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0.111403845</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>5ec25eb9-ac7e-4a63-b4d6-38d0d1977b51.wav</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0.12814972</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>5ed9b589-7943-4c6b-91af-cb196a8c406f.wav</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>0.08327527</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>5efee6c4-8b9b-4bc2-8381-a63cc3c4e0af.wav</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0.13105994</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>5ec02aca-195e-4d51-bd19-0c36a0e3c37e.wav</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>0.12919696</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>5f253a1e-af49-40a4-8a90-617bfa05f2d8.wav</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>0.12963277</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>607c812e-5347-42e6-ab22-492b4392bc60.wav</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0.1283114</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>62420a47-8e89-416f-9f5e-cb08cf9a0332.wav</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0.1387027</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>60cca731-42e2-44af-9de5-4bac64bdbd0f.wav</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0.11491275</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>6250e313-d639-4865-b4c2-680a64db3f0e.wav</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0.060821123</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>6162c1cf-3c44-42ab-9692-a5097bdc70f8.wav</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0.117079094</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>63268897-24fd-491c-a134-97245c0283e2.wav</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0.094193414</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>630c0d22-91cd-47a0-9d7b-e77aa347ac4d.wav</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0.12408899</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>5fb7717c-556d-4cb3-99fd-e0d320c9dbbf.wav</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.14532964</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>6324cbe3-4db4-45d5-b56e-0dfebc1b6bf6.wav</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.16814291</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>642f647d-fb54-429b-a32f-b38a04a8e92d.wav</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0.082479134</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>63591587-3c76-4956-aa49-dbe734323276.wav</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.07388101499999999</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>638bc312-3a35-4351-a69e-8b86270cfd2b.wav</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0.12826855</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>642f8e52-a3eb-4b7a-84b3-5d5592e9551b.wav</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.08688413</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>64162442-746a-423a-bdbd-898caa73472b.wav</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0.04689142</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>64409ffc-cd35-4638-99ed-b4d2753ce666.wav</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0.12848051</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>66ff837e-0597-4a41-8c7b-a8e5512ed411.wav</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.09507687400000001</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>66ba5c8c-03a7-448b-9f91-26a30e4239e9.wav</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0.12037622</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>679ec3c1-8203-4df7-b5c7-9d39b69dd4f6.wav</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.038164902</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>67dfd99c-1ba6-4568-bb06-f90b1923b093.wav</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0.10279419</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>66f1d078-d44d-4fe2-98ab-cadc0da728c1.wav</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.15029646</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>672a179a-6289-4f78-bee0-e1459ab14535.wav</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>0.11648904</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>64f9f84b-f148-47c8-adf7-9a743e6e4248.wav</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0.1587661</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>68ab1c34-48ba-497f-a581-acde4279141c.wav</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>0.1179809</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>668f3a8d-94b8-4ec3-86e4-c95d2a6db9d6.wav</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>0.15964016</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>68c8a06d-d56d-44f3-a5b7-91d4e7f9c196.wav</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>0.055751655</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>66176223-6786-4f9b-965c-6bbebed033be.wav</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0.14124238</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>68cbd5f4-bd89-40b0-9afc-51fc25affa9f.wav</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>0.106484205</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>67f88c08-f9dc-4183-b258-f6ce173b092e.wav</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>0.13645093</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>6945221c-2c48-4606-8632-53b7da3024ae.wav</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0.12237123</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>690e8b00-8b66-4cb4-97fa-07f2a99e736d.wav</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0.08200436</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>6a1e949b-20f0-45f0-9512-bb414260d856.wav</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0.08117385000000001</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>69e668a5-6bf7-4320-89d9-7b49da23ef59.wav</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>0.065899044</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>6ae89311-64ef-4952-a35b-b99ebf4f65d0.wav</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>0.11697182</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>67f4c06d-f1b2-434b-988d-19a33834e480.wav</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>0.16113748</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>6c53c3f7-328a-4a1a-895d-ed01dedf3f8b.wav</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.1764734</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>6c6bf76f-b865-4baf-ad4e-9aeaf7751dc0.wav</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>0.09742923000000001</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>6cebca20-5e13-475d-b048-3999548e0de9.wav</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>0.18305652</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>6c89da6d-6b0b-4bff-9545-484b66554e00.wav</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>0.1364932</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>6d52a891-e376-4814-8453-cbe1c09d947a.wav</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>0.10399878</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>6d0e46fa-ab79-41cb-abd8-10d4d2120348.wav</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0.08211318400000001</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>6c0cd6a2-0a59-4e51-91cb-aaaef37310fb.wav</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>0.14117523</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>6d929f60-e7d5-427c-b16f-7ee7fa29d3a7.wav</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0.11886912</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>6d36d0cd-feed-4435-978b-dcecc6003509.wav</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0.11546849</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>6e406e52-e005-4335-9767-b9b57b30d155.wav</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0.12211119</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>6e6730b7-910e-4329-aa87-16950ab532a8.wav</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0.13743767</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>6c4d28d0-f9ea-453d-b1bb-0eacd760eab2.wav</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0.08862331</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>6ea141af-7996-49aa-89a2-6d8f557f46c7.wav</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0.09316711</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>6db49f5f-b82f-489e-b01b-45f7c88c92ee.wav</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.12150459</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>6e2f6695-9c5a-4cf1-8bb0-2db70888c3f9.wav</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>0.09879420999999999</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>6f126f4a-97f5-4fa0-8d79-d7993139d72a.wav</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0.09399534</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>6f089e2f-8a21-44e2-bfe5-55be39e84203.wav</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0.09818499999999999</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>6ee5acbd-fba2-4099-965b-22acf5852eaf.wav</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>0.037452146</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>6f190432-0183-44d1-83f6-deea8a2ca17a.wav</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>0.10609895</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>6f4820c5-6872-4cd7-b3df-bc1c1167b006.wav</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>0.10801181</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>6f991f94-4e7a-4f8d-a884-31789c947b13.wav</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>0.12484003</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>6f382778-f27b-4f37-88cb-0e36e420e85b.wav</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>0.11984426</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>6f4c7895-8133-4cfe-899e-1a475276ef47.wav</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>0.085612774</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>702b90a3-658e-4ce9-881c-ee3bb84fe972.wav</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>0.09186303</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>712ecbb8-b030-4eb3-9009-9be70579d414.wav</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>0.14147556</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>7091f9a5-8438-4a0c-a73d-cb2e486f639e.wav</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>0.09477139</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>71307647-5823-4e10-91fc-a54827eef3e1.wav</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>0.11363836</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>70c26af6-29f7-48a0-9964-b4208561cddc.wav</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>0.11362897</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>7424da36-f0fa-4404-8b4b-6d34e2178a80.wav</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>0.050805222</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>74c273b6-05b0-4025-854e-a0cf764c8cdf.wav</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>0.09385883</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>71be78b7-1c25-40a5-bc4d-39d6d9460288.wav</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>0.12342706</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>731c98b5-20bb-4557-8968-8535e531aa3f.wav</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>0.1141635</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>754d0ed9-af2b-489f-921e-7f6a3eac0e41.wav</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0.116284534</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>7263f76f-fce4-4b46-b936-96eeb6181b12.wav</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>0.18184742</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>701f2d55-720f-439b-ae08-a7550a0250fd.wav</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>0.19114338</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>7512742d-1a5f-4714-bef9-bca67a440372.wav</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>0.091275066</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>7692f2c8-d732-4e7e-882e-5d5bfde5f2e9.wav</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>0.062197052</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>72e32283-10d3-4b3e-9aa0-345a90405f7e.wav</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>0.14901774</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>76a4a9e4-8774-4611-9eb7-281529c264fa.wav</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>0.1657643</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>757e756b-1033-4f36-8d24-25c901cf481d.wav</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>0.15349343</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>75a9bb7f-c775-4967-b809-cde37482af05.wav</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>0.16712876</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>7885d1d7-e154-4fbc-ba34-64d5ea76015b.wav</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>0.115941495</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>77852e7a-f3c6-4a81-9443-1bd6a3ef5c6d.wav</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>0.08163946</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>758348e8-16b7-4a8d-beeb-9688abb094d0.wav</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>0.09479876</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>78b02868-f8a1-4ff5-8e0e-ea45e0e9b58c.wav</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>0.049779117</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>79830968-9d74-4426-833a-1aedf42669f2.wav</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>0.077492625</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>7624496b-6668-446e-b50f-5abd8c04a41a.wav</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>0.16647853</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>78c742be-1858-4021-a6fb-03220b499f37.wav</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>0.16455407</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>7a6fff25-5c4c-4851-80e4-b32bf3d5b30c.wav</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0.15858057</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>79d9ad88-737c-42cc-a814-d0327ea01248.wav</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>0.07759244999999999</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>78f37e27-5828-414a-a3a1-84739327bd43.wav</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>0.13439704</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>7aa57805-b830-487c-b665-e87a4f206d8b.wav</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>0.06981833</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>79f4a269-242f-4b66-a224-2e10eafaef0a.wav</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>0.15912047</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>77e4ac70-0b7f-4c8b-b35c-6c4ed51f0274.wav</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>0.12635338</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>7af1b0dc-0548-4251-80f6-d5bb13076ba2.wav</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>0.11095558</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>7a728ce9-cd4d-4f5a-819e-b126a84e0c4d.wav</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.053846978</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>7b26e5a4-f772-4dc7-8312-7f4c1cbcaf28.wav</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0.22805049</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>7b80e093-32ab-44a2-a7a6-7ec15957537b.wav</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0.1704978</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>7bf7f71f-5ba8-48ba-8aed-11c54937d525.wav</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>0.049771354</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>7b9f472c-3980-4704-bfe2-874d8328bc04.wav</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>0.16833392</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>7cead50e-173d-403c-904f-adc29e76f4af.wav</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>0.14018196</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>7b9984bd-979c-4855-b496-3c118529d461.wav</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>0.1726597</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>7c416cd2-0fda-4d2b-b710-ce499809fdfa.wav</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>0.16023982</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>790973de-3cf9-424d-90bc-b26eb71e75c2.wav</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0.17282397</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>7ddd76e2-6c4e-4d74-816b-628dc6e6b0b4.wav</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>0.15891626</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>7d8be3a6-1651-41a7-a3ea-428d72aac0c2.wav</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>0.15370235</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>7ae539d5-1ef7-4757-af91-6381ec0f87a5.wav</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>0.11313123</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>7cf765e4-45be-46fa-ae32-2185b2f1df47.wav</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>0.079055466</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>7e09a744-c41a-4c1a-a281-f279d4e1570d.wav</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>0.06771753</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>7e7fdaee-54c1-4606-a37a-8eb3b5996895.wav</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>0.123016655</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>7f8e8f78-7209-4710-9a11-72201d1121a0.wav</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>0.116155714</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>7fcb0ded-9a8a-4515-ae59-5b6599f4aa69.wav</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>0.13196932</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>7b5dba1b-c43c-4ee0-bc55-4a05a4fd5a74.wav</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>0.11905424</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>7e0e5a0a-2660-4351-8ea1-fd064c7d33f6.wav</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>0.090366796</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>80767ed6-749d-41e9-877f-ef9435fe0efe.wav</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>0.122125335</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>7ecc3531-7850-4dc7-a273-71f1e29076f4.wav</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>0.14274193</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>7f22a1b7-d1c7-45f2-bf37-bb31cb6dfa7c.wav</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>0.1112199</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>8140c7e3-2c1a-4ede-b878-88c9d3fb9bff.wav</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>0.12742452</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>80a799b2-c277-47b8-a7c8-e89063020a73.wav</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>0.06505420000000001</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>7c14cf96-b59b-4462-ae82-b2f1707b8bc9.wav</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0.13875067</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>81093012-318f-4006-ba9a-7b6a2a7ace07.wav</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0.15558359</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>82cbf691-a930-4d53-aae1-31dd15ff3a42.wav</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0.057106473</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>81dfef37-220a-4b2b-875b-07cef2b4a2bc.wav</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>0.08915068</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>7e0a4680-9f18-4c29-b9d3-11619d1b8df5.wav</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>0.09602804500000001</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>82f31539-7d9a-4cd0-a77f-8413ed89ca9d.wav</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>0.19863833</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>8325c379-0942-4c8a-9488-466ffbc12d2d.wav</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0.060208417</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>81d1bb6d-b3e3-4743-8c2a-f4d80a2244ba.wav</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>0.07862635</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>81d811a1-e956-4c2b-a25a-61668f0ccb80.wav</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>0.106965706</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>83967a80-896d-48ca-b767-bcd039a9a8b6.wav</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>0.101179</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>83b0238e-1071-42ab-ba9a-3afcc8b933f0.wav</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>0.09387021500000001</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>840c93c8-cfef-41d2-8629-1470934a2783.wav</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>0.07325116499999999</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>845f02ab-b650-4ce5-b622-ffb829dd0d88.wav</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>0.060290698</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>847327c9-bab4-4ed6-9db8-46092c98b29e.wav</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>0.16366598</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>841c6bc1-1c62-4796-b0f2-b28ea3264987.wav</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>0.07084126</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>84a01d1e-f100-40bb-b549-1af327dcdd03.wav</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>0.10888228</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>849ed8b9-c387-4fcf-8bd8-0f8665609c6a.wav</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>0.11689241</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>85b8cd4d-ffe1-422b-bf61-e635b3f3603c.wav</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>0.122025624</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>85cae5e7-89db-4023-99b0-d43e1f535987.wav</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>0.06252882999999999</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>84a77cb9-a32d-4b3d-8001-8bb51e667829.wav</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>0.14712435</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>85d02d6b-e5e4-4ae7-8e3d-726d0b6508e7.wav</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>0.11322136</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>84d03751-77eb-4488-9dc5-38e50975b422.wav</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>0.14489937</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>85ee4afe-925c-4095-85db-da51e1497960.wav</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>0.23829657</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>84de39fd-3b21-464f-a546-c2d11aa05661.wav</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>0.08158703</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>8692d8d7-7e82-4369-bd43-7ce527cb2561.wav</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>0.11401034</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>86811913-d689-4264-94e9-5d07e074fa53.wav</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>0.14543228</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>860f29f3-f040-4f00-8c30-9004f5cda416.wav</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>0.2703504</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>8726d26b-1276-4a3d-bf58-38b971cb114f.wav</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>0.1358443</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>885e0bd8-2924-4495-97c5-8354da131a67.wav</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>0.20009139</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>87d7f8e8-9e6d-4f98-a7e0-c644414cae60.wav</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>0.1424003</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>878ac70c-5a1d-4ce8-a18a-36a7fcb59899.wav</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>0.07884086999999999</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>866e91d4-4001-467f-a87b-6457e664af05.wav</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>0.11837717</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>89a5687e-fac4-4530-87d3-a69b69913eab.wav</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>0.14031461</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>88d13b27-d866-4346-ada5-4b546689499b.wav</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>0.08499239</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>89ac9d42-c681-4d43-9da8-1b16b1ba5a87.wav</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>0.115286164</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>89a8ff86-76fc-48a1-890b-bfa1f7e6b9fb.wav</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>0.12537941</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>8a0da842-e210-4e6c-9c73-174b5b0a1269.wav</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>0.1402282</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>8a3636ce-9b70-4862-9a90-d6c73992d877.wav</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>0.14369737</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>8b4fdbda-0d7f-46b3-9b30-a95ef7a95e8e.wav</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>0.122565836</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>8a383085-4d5f-4896-9966-51ef0abd0b1f.wav</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>0.09786925</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>8b61947a-cbca-4fed-ae71-172c96956c18.wav</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>0.14014745</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>8bf9651a-407f-42da-a692-83f8ff68bc17.wav</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>0.06310737</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>8c6087c9-e278-4a8b-abb4-39e95b2dc2aa.wav</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>0.16917777</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>8c60e52a-f7bb-4779-9f5e-f6f6c39ff19f.wav</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0.16056131</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>8b01cea9-1f96-4877-8367-c863ba7f9dd1.wav</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>0.1858748</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>8d460b1e-4113-40d8-ab88-8ee9c06fc89b.wav</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>0.09109420999999999</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>8df787e9-4a23-4766-8ba2-922b3ab59d96.wav</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>0.11888671</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>8d1e5da3-ae0f-47fb-978a-44d12186eb63.wav</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0.10467641</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>8b5703f0-b579-4736-97d3-9f8778535247.wav</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>0.10428292</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>8ed02590-7aec-46f1-83e8-b6f174c22fc4.wav</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.07535606</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>8f4bd371-4634-42fb-a185-76fdc88becda.wav</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.1305424</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>8c5eb2c4-8fd1-46bb-baab-1b0284ace63e.wav</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>0.08878107</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>9028d535-56b0-40f7-a323-95f388e3f88f.wav</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>0.086303145</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>8f4dfd64-14e7-45ec-9c3f-62c1253016a7.wav</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>0.061630048</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>90b56732-260e-4892-810d-3032b6b5a72f.wav</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0.18828398</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>8ea963b5-4f8a-4b8f-88cd-9bee234a8b32.wav</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.123711094</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>90c7e36d-c629-4f69-9c2b-7698cce79892.wav</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>0.13770992</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>9097fc88-3e2b-4a6b-ad6c-9fa2bf775295.wav</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>0.077962644</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>91bccace-88a4-4f81-adfd-179e3e1cb1c2.wav</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>0.15158565</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>921c0477-e650-4a19-adac-32ac08fa5a8e.wav</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.069365</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>90ca8df0-49c7-410b-8e53-97b658d2862d.wav</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.16619445</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>9203bd21-8fa3-4997-bf9c-dc0dc579116b.wav</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>0.18557651</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>930ffd2d-961c-4d0d-8296-dc7df71864dc.wav</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>0.103960976</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>93fa2fff-56c5-4abb-8808-4ecc49f7854e.wav</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0.13180338</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>949ff646-c3a1-4401-9271-dcc4ae4ac420.wav</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>0.18738264</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>8fe15e6f-8bc3-4d71-8267-d9feb1c62da9.wav</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>0.14651799</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>948a0e18-bf34-4a52-9733-81108275818d.wav</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>0.0947881</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>91b7ba3d-69a5-485c-98f8-0370505dc51e.wav</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>0.0740548</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>964979b4-c32d-48fe-b166-fe567aae98a1.wav</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0.109229706</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>97142e00-f841-4762-b0e6-bcabba3adc46.wav</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>0.0630216</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>91e1e7bb-d6e1-46d8-9744-adc64e72b9ef.wav</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>0.2107009</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>9568f566-4943-45e9-a188-f6c0503a7d1b.wav</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>0.13562205</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>97ef5af8-d27c-4de1-9694-00f9afc0d62b.wav</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0.16723846</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>90ba4e47-c439-4bce-89c7-6c7baa798066.wav</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>0.10928048</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>927627d9-e6bf-40d6-9eb3-34da14274b80.wav</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>0.20148212</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>92f8c4db-4192-484a-a11f-8963e1772f64.wav</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>0.16562155</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>9710a6c3-a3d0-4700-a8f2-c64c53a74095.wav</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>0.16089693</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>93ba5eb3-4659-4395-b0b2-ba659e5de6a5.wav</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>0.13243265</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>982b25aa-4175-4d1f-a228-77881e8b2af2.wav</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>0.13903826</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>9650e543-7cc7-43d7-b874-c9125e1ec6fa.wav</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>0.14256822</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>99d2789a-f058-43d5-802c-571dba562ab7.wav</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>0.17566457</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>9525532d-58d2-419b-a622-52a254543dfc.wav</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>0.10698982</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>9840cc16-b18f-4e9d-b31f-11024d8e3d07.wav</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>0.09157256</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>9ae32e4e-538c-4f37-b460-855982aa56db.wav</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>0.14315458</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>96dae7b4-ee0c-4b4e-b913-2203b7e574a5.wav</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>0.118948564</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>9b64262a-28e2-4368-a633-40c26fb8e7bc.wav</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>0.13115157</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>95587a11-c814-4af8-8fd2-ccce6b2e9c9b.wav</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>0.10100077</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>9a533030-f78f-4f5f-887d-bf9913e03db7.wav</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>0.11603515</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>9bb675ab-569c-4697-8200-72a85ebcbf09.wav</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>0.1178029</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>960f46d4-4b9a-4c32-b814-a88d2f9964a5.wav</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>0.084625125</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>98af236b-07fa-4fae-a425-8b6bf25d3d48.wav</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>0.15992188</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>9793d14c-4290-4f8c-a345-a82123a14d96.wav</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>0.08517101000000001</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>9bc37358-cfb3-4ed9-b88d-a74cb62aebd2.wav</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>0.07448649</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>9bf04f2a-bfa4-4423-b013-aa5f11ce7790.wav</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>0.0790236</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>9d15dbab-defd-49b5-a53a-e869892f4184.wav</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>0.13650909</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>9932f3fd-08f6-4926-b59d-a7e76dec2b4f.wav</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>0.08193692</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>98c64ea5-edf3-4766-9bf5-df4d3b395385.wav</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>0.07309528999999999</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>9c3bf5b5-bed3-4b37-b5a4-ec8f37d6d58c.wav</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>0.15556867</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>9ca7a6e5-8f06-402e-8adc-cd77764d33a3.wav</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>0.13446668</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>9dc01209-4ebe-4865-84ee-c4001a874933.wav</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>0.080048405</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>9e495178-e7a6-4ae8-892a-3004d6c387c2.wav</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>0.08879168</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>9c39fbec-544b-489d-906b-86d0cfc25aa2.wav</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>0.07286620000000001</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>9d4f1663-1db0-499b-a101-6c89c6de53fc.wav</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0.1574935</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>9e40bef0-3fab-4ca9-859a-a0121b700721.wav</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>0.13200575</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>9eee83e2-2d13-4bc4-974a-a62fdad07718.wav</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>0.059732046</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>9e37e7a1-d1b9-439b-ae1f-b2c49ecf4732.wav</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>0.09925668</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>9ed866f5-634b-46a7-a758-cb46d8a64948.wav</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0.18787834</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>a0241a78-1e57-4712-9676-898413af29f0.wav</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>0.115527764</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>9f23072c-902a-4499-98bb-054075d6ab7b.wav</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>0.059685193</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>a11eb7ad-20ce-425a-a40d-7a96410ca7dc.wav</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>0.19841555</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>a1206d85-f6cd-4158-9344-bc5df14d98b1.wav</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>0.08964692</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>a01a03aa-746f-42d6-8595-1407c9a63683.wav</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>0.19723457</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>a05deba2-398f-4bed-af27-5ee5ddbaa615.wav</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>0.11097239</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>9f4447d3-ee2d-439c-8b9d-9d734c812c99.wav</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>0.14846224</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>a1c88bbc-39a0-46ce-9884-e8012872cb2f.wav</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>0.07487358</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>a1681f29-c9de-4c3d-a86b-b84656315a10.wav</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>0.19657141</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>a1ed424d-6bb3-45f5-afc2-e57fe75deb8f.wav</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>0.098891325</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>9f65187c-b11a-4edb-832a-2174b8fa6a50.wav</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>0.097958855</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>a2262d22-0ae9-49c4-86ad-2e71d8f494a6.wav</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>0.09180004999999999</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>a1c1345c-f1e4-40e7-b2cd-c21400306a0b.wav</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>0.15271881</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>a338a429-592e-45a5-849f-48983a8ee5e2.wav</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>0.1320316</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>a340a82f-1b02-4a21-854c-f455a78c4cca.wav</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>0.089778595</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>a269845a-8c9f-4f23-8711-36c28393f69f.wav</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>0.09151292599999999</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>a3928736-58b1-4de7-9bfe-b9cc442100b4.wav</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>0.16362101</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>a1e41c06-ba29-4f95-965e-9e00d5c075bf.wav</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>0.060879342</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>a4404b4f-2381-485c-a28b-fdbd67862ef9.wav</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>0.14592306</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>a50454cd-8bf3-4a9e-b058-3a55f3049c7d.wav</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>0.108288184</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>a3a73ecc-cf88-47d9-a02f-1ffa19055b6c.wav</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>0.11905364</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>a5455669-1a84-4c2c-9d84-7c848c9ef90e.wav</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>0.07518089</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>a575cff3-256b-4f5a-996c-1b87a1675b67.wav</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>0.12312263</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>a536680d-ef59-466d-a9a9-43c9922e3e4d.wav</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>0.1482853</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>a61b2d6c-5ec1-4767-951b-289d69321d54.wav</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>0.11816162</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>a59fcd18-9898-49dc-b4ef-f790fcb4e5ce.wav</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>0.05944821</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>a69a8aa7-33c9-45e9-9749-25b28699728f.wav</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>0.06289999</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>a4c4251f-0cb6-4bd5-94b6-b1522a6b9c0b.wav</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>0.15549913</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>a7465f1a-7c9a-4058-89b0-ab0fe29cc6c5.wav</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>0.0903167</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>a5f304e4-ad29-4210-b4ff-4d99ee7c1223.wav</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>0.13709189</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>a7b6f0f7-4181-4be1-8634-5164095257a5.wav</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>0.09737382999999999</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>a6124cdb-2bfb-45cc-a5e9-248233fc2a90.wav</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>0.14775883</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>a9a9ced1-24be-4bf3-819c-02b8696f661f.wav</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>0.12184046</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>a81b8900-d009-46ae-8f61-5b243fc0abe7.wav</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>0.1476307</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>a8b41389-7548-49f3-b004-8159df01f718.wav</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>0.11988047</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>a9da6675-82ab-495a-a9a4-e4eb413e3183.wav</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>0.08657695999999999</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>a64b394e-e013-486b-843d-fafc574cb2f4.wav</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>0.15344204</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>aa8b75e8-12cb-498a-bfe9-64fea3a169cd.wav</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>0.06302553</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>a9af0848-b8c0-460e-b028-8d70c8c75725.wav</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>0.178942</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>a9fd5049-f1df-4a43-8010-eef43d3dd7fc.wav</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>0.13817984</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>ac2c4dd2-956b-454a-b408-9ff5a1a16763.wav</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>0.13624668</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>aae5e8a8-e4df-404e-b428-fa976ab28ec1.wav</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>0.063498974</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>ad4e03eb-182f-45be-b442-1432e24c04f5.wav</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>0.12394365</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>ac8084ed-a144-4bf7-8625-caf17ce4ae99.wav</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>0.10832343</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>ad7369bb-5707-491b-90f8-a0b932fda6cc.wav</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>0.106527224</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>ae722ffe-b7b8-4019-a834-ad4c1412b65a.wav</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>0.16602734</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>ace07743-8d25-44b1-aa31-138117b07f2a.wav</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>0.26061222</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>ae8c3f18-f228-43a1-a6af-d16dd94b2112.wav</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>0.09272368</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>ad74ac8c-67ca-4227-8271-3024e412f874.wav</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>0.123662025</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>ad7cada9-b5a9-4da6-a49e-2f553d2d46c8.wav</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>0.15207154</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>b0565bf5-e57a-4c00-8106-dca8770a8df5.wav</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>0.14270954</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>aeb23c72-7333-4cc7-874f-cb3aedc56eed.wav</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>0.07419261000000001</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>af349c1b-2002-41fe-b5d2-5a59ee9838d2.wav</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>0.13305116</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>b0b16f63-955b-427b-9848-ede6c3fbece7.wav</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>0.15087204</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>af3e9769-53a3-408b-b791-c16b4075b6d1.wav</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>0.12470904</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>b2644e0c-b08d-4b46-aa86-91b0d16a8390.wav</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>0.15660754</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>b097cba0-4980-4d84-9e53-033bc886f6d6.wav</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>0.190209</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>b2cc7c14-dd77-405d-9206-65daa0bf21df.wav</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>0.09094048</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>b3029363-efa5-47ed-85d4-ec5297329991.wav</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>0.15685588</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>b07a4113-faae-4381-a44d-9d7cfc8fac1a.wav</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>0.23183362</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>b29d307d-c922-408c-8eb6-641a48c5fd64.wav</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>0.09965135</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>b3a29236-f9a6-4e23-bf08-0c75c540f3a5.wav</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>0.1011171</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>b37f287b-81c5-4a33-ac0e-5f485ff071a1.wav</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>0.044270843</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>b3cdd456-515d-46ed-bc50-b82f4375c767.wav</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>0.122428626</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>b09606d5-b1d4-4284-bea4-09ec4ec7f5fc.wav</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>0.10691704</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>b3bc9ba2-6d7f-41f3-b934-9a55495026d7.wav</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>0.07268761</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>b53dcfca-2009-4241-85f3-22c2703ccc8e.wav</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>0.06920712399999999</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>b4a1078f-43fc-463a-adab-e311331a817d.wav</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>0.1095857</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>b54404d9-c58b-4c0a-b6ed-c549d4af331c.wav</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>0.09479124999999999</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>b2c9282d-89a5-44ba-af73-97cec6c0c046.wav</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>0.047814727</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>b453e869-f86a-4a01-8821-6733e700d368.wav</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>0.15773968</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>b70218fc-059b-4e2a-95aa-5b2909ed8518.wav</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>0.13567112</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>b64a3774-50eb-44f4-a760-0a3e3e89d536.wav</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>0.08843616999999999</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>b72ef53f-de34-4f4e-b136-896fd7ab8e21.wav</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>0.11740813</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>b302af75-0f22-429a-8f4b-414e190aab85.wav</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>0.10081374</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>b7a5eccd-e686-4351-893e-e19c650c51db.wav</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>0.09018502</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>b71ec02f-1ee8-4ed9-81d0-751559ab5f9f.wav</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>0.08052511</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>b7b0dfa0-5a67-485b-8aa9-a3f0ce8b99e7.wav</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>0.15138707</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>b8d7a16a-045c-470f-9569-0ef54a1f983f.wav</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>0.085208856</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>b94ac66b-e889-4df7-9b75-0f677ebfdb44.wav</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>0.10716125</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>b801c7ca-7752-4e82-b829-d04525f8b886.wav</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>0.09039664</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>b98b53e3-4863-40fa-94ac-9580b9e7087c.wav</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>0.08110632</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>b9a3ec48-c90c-4fa1-8851-1f0114231c00.wav</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>0.11109057</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>b8eda053-0e3f-41d3-8689-c9797ccb5c27.wav</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>0.09747759</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>b9558c57-d5fd-470a-9110-b9995e4df6ef.wav</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>0.09444068</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>b9e5669c-2196-47c3-80bf-fe4e63b3078b.wav</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>0.11675996</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>b8067540-b928-41fb-88e9-389a9677aacf.wav</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>0.07978281399999999</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>ba009e4f-e5af-4799-bde5-242fe1557b6a.wav</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>0.19412586</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>ba72f92e-0ac9-4c51-96dc-437ec344ee0f.wav</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>0.1644802</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>bb8d0f71-2cb8-481c-84f9-17c9082d559f.wav</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>0.12158552</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>bb1d1100-b3d3-4767-9f4a-b31a3b5e62b2.wav</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>0.17698553</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>bbfc5679-3f8a-426c-b630-ac492af318c2.wav</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>0.03734215</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>ba1ea1fd-3e68-4a42-b4a4-581732fbc1d7.wav</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>0.0900123</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>bc62cab6-cae4-4e18-ae71-71e1c0e4e19b.wav</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>0.06067095</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>bd0cd5e9-b0e1-49ad-b0e7-204a2e3c7e8e.wav</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>0.08362235</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>bbcbb7da-5ae2-4098-8acf-977b1c65c387.wav</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>0.1282321</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>bd1e9aa8-e4fe-498c-aea3-cb31f82a6783.wav</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>0.10168358</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>bd9044b8-382e-411e-a174-7c7926adcfb5.wav</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>0.16651767</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>bc068122-efd7-4f96-9204-8863cc4bd3aa.wav</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>0.17252049</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>be1aeeba-3336-4749-b916-da61ef1bfd83.wav</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>0.06207635</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>bea50f2c-732d-43b5-808c-953f77c0a12b.wav</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>0.072597995</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>bee4e629-e7eb-4114-9d0f-64960694e298.wav</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>0.07178349000000001</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>be39ff0e-8149-43b6-b963-153dcae5fa8d.wav</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>0.09776745000000001</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>bceed3a8-9663-4621-9b54-fb3f99ee714e.wav</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>0.07878673999999999</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>bfe89a09-ce64-496b-a428-90cb885de532.wav</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>0.07964771</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>bf082a46-3d08-4628-895a-dd0ff5ce595c.wav</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>0.12261598</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>bdfeb770-5ea6-4f45-94fb-eb1975716f18.wav</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>0.12138501</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>beb27b69-5e25-4e54-9870-fc679d8183f1.wav</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>0.097672805</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>c11bfffb-d11e-4a66-999f-c63417898421.wav</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>0.14749965</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>c3298ebe-f37e-4005-8504-45dc23f245b7.wav</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>0.12379888</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>c3b596b0-645c-42fb-bcfd-ae28699fa68a.wav</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>0.05865141</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>c08ea975-6301-4c35-adf8-394edbc5fff2.wav</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>0.08939811</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>c2cdea91-c5b8-4c82-bc31-6266268f7389.wav</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>0.10802967</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>c171fd72-66fb-43b8-aea4-da2089f6e03c.wav</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>0.22989133</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>c43450b5-430c-47d4-9075-d1fad228a38a.wav</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>0.1120834</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>c35ab6d0-6da2-4a6c-bff1-acb34588063c.wav</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>0.12865716</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>c501a597-aa4c-45b5-b1a7-bf266fd7c3d6.wav</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>0.09144281</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>c3fc99ce-601b-42d3-8196-55daedef74ca.wav</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>0.097787835</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>c417155e-a4c1-48db-8852-508cc7623b42.wav</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>0.09025344</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>c53c2787-9211-42d8-9dd8-8bbd57986f63.wav</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>0.10285097</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>c4964c0c-e97d-4c9b-ad11-2447c4e1e6ea.wav</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>0.08842804999999999</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>c585d386-53f2-4ff5-8df5-9170ab18c790.wav</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>0.09553113000000001</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>c5191f72-0728-4d9a-84fb-6fb253f17deb.wav</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>0.08229781999999999</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>c614ff95-e007-4f32-97de-6caa97158c45.wav</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>0.11934881</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>c5c2f889-f1ff-4ecc-b8df-a054daba375a.wav</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>0.110948436</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>c5b903f8-9a7c-47bf-987b-357984d47f27.wav</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>0.11793456</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>c71bd462-6c85-47a9-8ba3-e3a4f61307a7.wav</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>0.13280474</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>c78af98c-ac0f-45fb-82a8-97ce344a76c3.wav</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>0.07392372</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>c8542010-90cb-4f2a-b0f4-3281b4824da0.wav</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>0.07387284</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>c86d874f-5ff5-4477-a327-30d7c96c9d1f.wav</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>0.103741825</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>c8254284-6c63-4fe7-9a83-d1e01c298048.wav</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>0.1302006</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>c7ead499-e936-478c-8bee-26ff0741ecbd.wav</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>0.10459852</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>c8caaeda-96ba-4526-a17d-7818c0967563.wav</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>0.13443795</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>c8d0f2d1-608a-49ce-85f7-1cef0cd562a2.wav</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>0.058463257</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>c26d4c17-6ffd-4454-b61c-0e3090b3c637.wav</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>0.1557727</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>c921cf8a-d2f8-4869-9ea1-ecbe4f71d0d1.wav</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>0.17539498</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>c94a6187-48c0-4a95-abc6-38ae0d32df4a.wav</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>0.10006527</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>c5c524d1-66a5-4154-93a7-449ba7247742.wav</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>0.10442725</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>c968cca4-c478-48f7-bb7d-61aed74ce937.wav</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>0.10497031</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>c96613dc-f1ad-43e8-9324-4bb883366f60.wav</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>0.09546002000000001</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>c9bd9654-0a76-4ee8-ba7e-9bd6f8376e90.wav</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>0.10513802</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>c9af780c-5b48-4c25-94b8-7cd0e7183a7a.wav</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>0.08772487</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>c756f858-cfe8-45fe-a604-a5f7d48eb2aa.wav</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0.11003261</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>c9a944c2-fb44-4f95-afa5-e98e11281cda.wav</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>0.1739833</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>cae82d8a-da9f-4125-b7e2-be1ce8b965b4.wav</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>0.11463398</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>c9680448-8d4e-4215-b1d7-ec91f783fa5d.wav</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>0.09312347999999999</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>cb8448d2-ffab-4082-b123-9ffe7bc1be4b.wav</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>0.12507622</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>c7fda4cf-154a-47b4-bc1e-ca493bbd4643.wav</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>0.09713988</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>cb00a10f-bb9d-4360-9c6d-54be393e9d61.wav</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>0.06618444599999999</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>cc158ee7-b32c-4810-8e8f-a93729aaf5cb.wav</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>0.08378429</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>c9c30e9b-c34f-4dee-98f2-48bf4d665075.wav</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>0.07785185999999999</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>ce5bbdcd-68b6-4806-a030-06e00f2a1e0d.wav</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>0.12605658</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>cc74e7e5-e540-4643-9934-fdf91a9804a1.wav</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>0.17300567</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>cc0ae802-52b7-4e94-8900-b8b12790154f.wav</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>0.16069512</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>cec5bbb6-8399-40a5-a431-e7f9ace1973d.wav</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>0.10186222</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>cc60bc40-d703-4c41-b4f2-0104eed5d75e.wav</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>0.16611183</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>cf8861fa-a1f4-4c8c-b891-524d77a26630.wav</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>0.09397087</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>cf99df59-f340-4176-a37c-221a787f59d8.wav</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>0.09868370999999999</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>d1149d6e-56ac-4663-8e46-7a28fa03c8b3.wav</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>0.13273329</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>d03cfb13-027d-49bd-97bc-f3a0f7d78bcf.wav</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>0.17194186</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>d1591ec8-235e-4dc6-bd1d-41fd285557d9.wav</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>0.083159894</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>d1a8458c-2547-4abe-93f6-096a0a9ce718.wav</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>0.106039375</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>d0e6172e-7d98-4101-ada4-913c83a33707.wav</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>0.16179945</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>d1b22b97-4c0d-4922-9ec9-41b9c091199b.wav</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>0.10424624</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>d1da48b4-fc8c-4707-a935-13f8ebe8b780.wav</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>0.12773523</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>d1dfa9e2-9889-4ac7-955c-1ad2657025df.wav</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>0.11276676</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>d20641b6-e118-4109-83c7-15ecff34eaf6.wav</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>0.106179714</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>cd88e4d1-bf9b-41d1-9b62-4a4131e94b10.wav</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>0.13538334</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>d20c74e6-ba0b-49ca-a840-5c64c4ec565f.wav</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>0.087537594</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>d2166f37-63c9-4e22-a666-36cf4049fab2.wav</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>0.15898803</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>d2c358b3-a6d0-4e71-8bca-92fb30148eb4.wav</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>0.043389652</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>cda178f4-fad7-4674-8959-6a0435952b7c.wav</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>0.08729607</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>d2af0f4c-050e-4c49-8af6-78d8e19ae7e1.wav</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>0.12714513</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>d415bfbf-5598-4c7f-92bc-b0931ca7614b.wav</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>0.12220764</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>d2c325fa-5a65-4923-ad14-7f8e974e2c13.wav</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>0.14853987</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>cf41a25a-fc7d-49b5-bb02-130b76727203.wav</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>0.11809929</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>d40260b0-05e5-4781-a7be-a8405a157aaa.wav</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>0.19644767</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>d52876b6-cc2c-4226-a97e-37f6a17b9754.wav</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>0.14669462</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>d45cc623-68e6-48c3-b4f2-aad4d2c69b8f.wav</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>0.07500443</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>d450ddc6-73db-4c66-9bb5-be55ee1d7aa0.wav</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>0.12001544</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>cfa4c392-b4d6-4143-8bb9-852d30571890.wav</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>0.18997282</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>d40da376-6db9-4761-8265-4d4b11b05fb4.wav</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>0.13280171</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>d62e1543-a745-4ff2-8425-6c576251c2b1.wav</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>0.10468272</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>d58743d0-90f7-4c32-a2ad-cfda971e66cd.wav</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>0.1063379</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>d661c60c-f8d7-49e8-b5df-9436355e1543.wav</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>0.12645015</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>d515f367-d171-4dcc-99da-7bad14eac94c.wav</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>0.11053267</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>d15f1dcf-573b-44c2-b205-16ec7f4f5d3b.wav</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>0.16457859</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>d8c3b50d-aab4-4de5-a06f-c89955421a9e.wav</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>0.07281202000000001</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>d5ca2a61-75ed-4442-824a-76bff59a9f28.wav</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>0.21292134</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>d6d7e421-eeb7-46b9-b939-17e6a3c2d47e.wav</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>0.09274316000000001</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>d5a00247-7833-49ec-8d5b-7fc9f721d3b5.wav</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>0.12780824</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>d1f05439-9ef5-4b13-8e51-91b915993ba3.wav</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>0.055018283</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>d957a7bd-aefd-41f5-b055-f079297d9eeb.wav</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>0.085758604</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>da404fce-355e-48cf-88cb-db85bd3019b3.wav</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>0.066875</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>d6c2fec9-750c-4261-a482-5dff59d5e520.wav</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>0.12697579</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>db38be77-827c-417b-968e-880278f78f2b.wav</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>0.12641245</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>d9fcc472-5796-4a78-8979-e13168abe10e.wav</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>0.1820166</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>db4fde47-9d6e-4db4-abab-80fe570e257f.wav</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>0.05009227</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>d724d95f-8565-4bf5-887f-486329ceb420.wav</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>0.1349481</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>da8ace81-bb56-4299-8981-13dd83e1873e.wav</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>0.096036434</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>db10727b-8f44-4d88-b0ad-0517ba5e338b.wav</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>0.07645178599999999</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>dbd12970-fa6e-478b-a124-d4c270432447.wav</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>0.13451707</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>dbd82f5d-a37c-4b36-ba1e-dc0cdffea103.wav</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>0.10180896</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>d86e7a61-f8e3-475c-a3f3-dd8e5036a900.wav</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>0.078633904</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>db240c9f-3ce1-403b-abe5-454b483e8381.wav</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>0.07285642000000001</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>dc9a94aa-6bd3-474b-ac70-2005fe0b62d3.wav</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>0.09472272499999999</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>dc7f92d5-12b4-4ba6-8329-55564b5908d1.wav</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>0.13932538</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>dcfb541d-872a-4ba3-ae6b-002597f6dbbd.wav</t>
+        </is>
+      </c>
+      <c r="B757" t="n">
+        <v>0.10437028</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>dc9212ce-033a-4f3a-ac2d-da2c11119b74.wav</t>
+        </is>
+      </c>
+      <c r="B758" t="n">
+        <v>0.17762947</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>db71733b-2609-4784-a9f8-d79e02d59ca7.wav</t>
+        </is>
+      </c>
+      <c r="B759" t="n">
+        <v>0.16298</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>dcf3a025-6a60-4159-b488-0543770db35b.wav</t>
+        </is>
+      </c>
+      <c r="B760" t="n">
+        <v>0.117891684</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>dd4c260d-85aa-4c5e-97da-25dce869a613.wav</t>
+        </is>
+      </c>
+      <c r="B761" t="n">
+        <v>0.109475955</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>dda10f2e-7931-4ecb-8612-86f1506b1735.wav</t>
+        </is>
+      </c>
+      <c r="B762" t="n">
+        <v>0.074517</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>dbea4b7d-f380-4a11-b953-29a328bf245a.wav</t>
+        </is>
+      </c>
+      <c r="B763" t="n">
+        <v>0.054662906</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>dd8cd39c-8533-490a-84fc-b41f39d28c4d.wav</t>
+        </is>
+      </c>
+      <c r="B764" t="n">
+        <v>0.10197751</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>dd83e446-4e47-435f-be30-ff92c7bd0aac.wav</t>
+        </is>
+      </c>
+      <c r="B765" t="n">
+        <v>0.15315533</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>ddac45a8-cdbc-4dbd-89d4-6f62ffea0399.wav</t>
+        </is>
+      </c>
+      <c r="B766" t="n">
+        <v>0.08038038</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>dc0df4da-894c-4460-8f3b-cac20b3f1db1.wav</t>
+        </is>
+      </c>
+      <c r="B767" t="n">
+        <v>0.09990031000000001</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>ddd7fac2-7e64-4990-a026-c243101727c0.wav</t>
+        </is>
+      </c>
+      <c r="B768" t="n">
+        <v>0.17447405</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>dec5c5b5-1a61-4a5a-a237-044134d67b61.wav</t>
+        </is>
+      </c>
+      <c r="B769" t="n">
+        <v>0.10962268</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>ddba5e4f-5a32-41e2-8e9a-0cd61e6c52e5.wav</t>
+        </is>
+      </c>
+      <c r="B770" t="n">
+        <v>0.11811371</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>dedb6593-b74a-4ce2-ada5-69234c5711d0.wav</t>
+        </is>
+      </c>
+      <c r="B771" t="n">
+        <v>0.23548034</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>dc01fac2-1adb-4105-8b8d-898486b44112.wav</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
+        <v>0.14897305</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>df840dbb-1521-47d7-8f5f-3e8a088415cb.wav</t>
+        </is>
+      </c>
+      <c r="B773" t="n">
+        <v>0.07083278</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>dce94e15-c68a-405c-b9ed-dd1b67812cdf.wav</t>
+        </is>
+      </c>
+      <c r="B774" t="n">
+        <v>0.13266505</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>ddc6a810-1f3b-4247-901d-9049ded2d6d1.wav</t>
+        </is>
+      </c>
+      <c r="B775" t="n">
+        <v>0.047932733</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>e069238c-e503-466f-824d-4e6bceb61fba.wav</t>
+        </is>
+      </c>
+      <c r="B776" t="n">
+        <v>0.19076426</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>e13ad78b-3bb4-4b5b-ae4a-eff4b4983d73.wav</t>
+        </is>
+      </c>
+      <c r="B777" t="n">
+        <v>0.1464748</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>e0175732-1d1f-4e1e-a315-70c85b541bac.wav</t>
+        </is>
+      </c>
+      <c r="B778" t="n">
+        <v>0.05991005</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>e1850a9d-d3ad-431e-b90f-60106be22bce.wav</t>
+        </is>
+      </c>
+      <c r="B779" t="n">
+        <v>0.10334289</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>e1da17c1-7ff1-44c9-9711-b1d13b2b527e.wav</t>
+        </is>
+      </c>
+      <c r="B780" t="n">
+        <v>0.15159015</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>e204315c-2eef-4420-b49f-27adbcf37e7d.wav</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>0.14428669</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>e0c5478f-5c28-46b7-8c13-c7ca690be6d1.wav</t>
+        </is>
+      </c>
+      <c r="B782" t="n">
+        <v>0.053225234</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>e236af0a-ce96-4e73-8b83-0bc807f47a20.wav</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>0.049866892</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>e2df65d2-9167-4250-8bca-1adc678dc064.wav</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>0.14595556</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>e2c83040-00b0-4433-9433-41af4990f29b.wav</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>0.088686794</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>e368e621-8879-4429-b22f-712578d1148c.wav</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>0.11530014</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>e2fd861e-e79e-459d-b207-b97a878384d3.wav</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>0.09751733</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>e37319a3-a4f7-4594-8be1-872997641e05.wav</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>0.13031457</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>e19ecd92-d8b7-4491-b993-3699b5f77566.wav</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>0.09041071000000001</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>e3bfba28-a1a8-4038-8afb-1686b8a50603.wav</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>0.1312232</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>e41b007c-a878-435f-8e33-c11f7636b145.wav</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>0.097914934</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>e4da9663-e9c6-4481-98aa-efaa6e25778c.wav</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>0.07138401</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>e43fc16d-faa7-42f3-93f5-cea96fae71b9.wav</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>0.08348846</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>e574a980-c49f-488e-b942-06b16b337ae9.wav</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>0.06868665</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>e59bca91-2c80-4a20-af47-533c1e2c628d.wav</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>0.07957139000000001</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>e5a9c08f-24c5-4468-b5f4-19d6b82af5ae.wav</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>0.12262361</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>e4fdb6f5-1722-4d70-b9b2-f961fde41b3a.wav</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>0.15512295</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>e6884614-c91a-4bf3-b478-a05e0a25ae4f.wav</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>0.08032042</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>e99e6d56-58e8-4b8d-b647-ce86cdf7e069.wav</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>0.110614106</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>e785e0c3-0920-4627-a280-5db689237064.wav</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>0.12199883</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>e7cd7a21-0596-4260-8db9-d9b614359303.wav</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>0.17300883</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>e584ece9-7af3-4024-9522-83363a0eade1.wav</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>0.13522811</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>ea917935-93b2-4560-9db7-7954163f7eb0.wav</t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>0.18703476</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>e9cbda68-3e82-4fe8-bcb2-31168194d77b.wav</t>
+        </is>
+      </c>
+      <c r="B804" t="n">
+        <v>0.103871554</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>eb208cb7-59cc-4727-8611-2033952de6e3.wav</t>
+        </is>
+      </c>
+      <c r="B805" t="n">
+        <v>0.112115316</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>e8ee3636-dbc0-499b-91cf-0434d544a3ac.wav</t>
+        </is>
+      </c>
+      <c r="B806" t="n">
+        <v>0.08835512</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>eb5ec157-c483-43b9-8bdb-8ba855afdefc.wav</t>
+        </is>
+      </c>
+      <c r="B807" t="n">
+        <v>0.10263486</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>eba28976-1654-4384-ad79-b59cc1f7abe3.wav</t>
+        </is>
+      </c>
+      <c r="B808" t="n">
+        <v>0.16554533</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>e9f060f0-9614-4489-8741-67d00ceb475f.wav</t>
+        </is>
+      </c>
+      <c r="B809" t="n">
+        <v>0.08587282</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>eba77cba-814e-408b-b102-44888a351362.wav</t>
+        </is>
+      </c>
+      <c r="B810" t="n">
+        <v>0.11983066</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>eb51f35d-9344-4c6f-aed9-4bac865c0caf.wav</t>
+        </is>
+      </c>
+      <c r="B811" t="n">
+        <v>0.17536034</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>ebf4a99b-78bc-4a46-96ff-f9567fba1b91.wav</t>
+        </is>
+      </c>
+      <c r="B812" t="n">
+        <v>0.049142376</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>eb182cfd-6128-41ff-8dd6-9d38e102db33.wav</t>
+        </is>
+      </c>
+      <c r="B813" t="n">
+        <v>0.10211273</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>ec122670-0890-4868-82e7-59bb04a4dbdc.wav</t>
+        </is>
+      </c>
+      <c r="B814" t="n">
+        <v>0.09129326</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>eba7cec2-bfbe-4834-a923-9e487919daf1.wav</t>
+        </is>
+      </c>
+      <c r="B815" t="n">
+        <v>0.08664804</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>ec0008e7-d79e-48e1-aeb8-4619ce2d46b0.wav</t>
+        </is>
+      </c>
+      <c r="B816" t="n">
+        <v>0.1305804</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>ec7d759a-2d6a-4f59-9a9c-d521c6566790.wav</t>
+        </is>
+      </c>
+      <c r="B817" t="n">
+        <v>0.08319615</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>ec80d893-d26d-4e48-b661-a7d4719022c1.wav</t>
+        </is>
+      </c>
+      <c r="B818" t="n">
+        <v>0.09612265</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>ec14c070-7789-477f-8f24-7a005c2501fe.wav</t>
+        </is>
+      </c>
+      <c r="B819" t="n">
+        <v>0.052498125</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>ecdb7826-16bd-4a5e-9a63-7bb2977ca6fc.wav</t>
+        </is>
+      </c>
+      <c r="B820" t="n">
+        <v>0.060000233</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>ecc9f59a-878e-4a11-b59f-e8362f95dd66.wav</t>
+        </is>
+      </c>
+      <c r="B821" t="n">
+        <v>0.120833874</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>ed0bd403-6af6-4c78-b50a-ff30da6466a1.wav</t>
+        </is>
+      </c>
+      <c r="B822" t="n">
+        <v>0.096372746</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>ec418094-1e1a-4cd5-8845-cda2b7b768f0.wav</t>
+        </is>
+      </c>
+      <c r="B823" t="n">
+        <v>0.10112607</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>ed1496fb-818c-4ad4-8573-890527bd659a.wav</t>
+        </is>
+      </c>
+      <c r="B824" t="n">
+        <v>0.0904206</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>ed47f433-cb4d-44e1-8cb9-646df680cd7d.wav</t>
+        </is>
+      </c>
+      <c r="B825" t="n">
+        <v>0.07476112</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>ed7d6044-6159-49e4-bc74-c56d3b5e5c1d.wav</t>
+        </is>
+      </c>
+      <c r="B826" t="n">
+        <v>0.06871231</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>ecf05675-12ca-4fff-9782-104c51058b6c.wav</t>
+        </is>
+      </c>
+      <c r="B827" t="n">
+        <v>0.14635965</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>edbf6200-95fb-4fb5-9d94-e77538fc8bee.wav</t>
+        </is>
+      </c>
+      <c r="B828" t="n">
+        <v>0.12980074</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>eddd3936-4790-4232-b7aa-685a42475751.wav</t>
+        </is>
+      </c>
+      <c r="B829" t="n">
+        <v>0.08418452999999999</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>ee057695-e1ab-4e13-a77b-d19482451489.wav</t>
+        </is>
+      </c>
+      <c r="B830" t="n">
+        <v>0.057770062</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>ee8e9b20-9f6e-4ce8-abed-e002445ad7a1.wav</t>
+        </is>
+      </c>
+      <c r="B831" t="n">
+        <v>0.06719124999999999</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>ee65e291-efe3-4f0d-b475-65705849f537.wav</t>
+        </is>
+      </c>
+      <c r="B832" t="n">
+        <v>0.1512756</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>ee06ab1c-a701-486c-b78a-b775a93512b8.wav</t>
+        </is>
+      </c>
+      <c r="B833" t="n">
+        <v>0.10683866</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>eec08be7-beb1-4b93-a2bc-fb8f60caa814.wav</t>
+        </is>
+      </c>
+      <c r="B834" t="n">
+        <v>0.15287781</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>eeb483da-7070-4d05-9b96-634a90cdfe5a.wav</t>
+        </is>
+      </c>
+      <c r="B835" t="n">
+        <v>0.17482726</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>efd603ca-e69b-4de5-8e6f-9ab08bf0319b.wav</t>
+        </is>
+      </c>
+      <c r="B836" t="n">
+        <v>0.118980944</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>f01b4ce5-f33a-46af-b039-76b537dc9acd.wav</t>
+        </is>
+      </c>
+      <c r="B837" t="n">
+        <v>0.10169489</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>f04a1de7-06a9-4e66-a906-8fa5dc5a1140.wav</t>
+        </is>
+      </c>
+      <c r="B838" t="n">
+        <v>0.10492232</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>f0513200-c342-4ef2-a928-9a69951fe17b.wav</t>
+        </is>
+      </c>
+      <c r="B839" t="n">
+        <v>0.08284287</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>f0c4fee2-09d1-4d23-bfbc-04f51223cf79.wav</t>
+        </is>
+      </c>
+      <c r="B840" t="n">
+        <v>0.10342157</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>ee0c97c3-5fed-4ce1-9aae-b07a46b98640.wav</t>
+        </is>
+      </c>
+      <c r="B841" t="n">
+        <v>0.12776847</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>f05406f2-1d3b-41e7-81f5-9dc884843601.wav</t>
+        </is>
+      </c>
+      <c r="B842" t="n">
+        <v>0.10184652</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>f02d7493-b3d8-4caa-9ac8-a0bfb211c973.wav</t>
+        </is>
+      </c>
+      <c r="B843" t="n">
+        <v>0.049901992</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>f0cae581-85c1-43ce-afb8-c58c36194ab2.wav</t>
+        </is>
+      </c>
+      <c r="B844" t="n">
+        <v>0.090684496</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>f12fce86-754e-4240-ae8b-fc28e6957290.wav</t>
+        </is>
+      </c>
+      <c r="B845" t="n">
+        <v>0.06743016</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>f0339616-1e65-4475-97ef-16c3f526ac2f.wav</t>
+        </is>
+      </c>
+      <c r="B846" t="n">
+        <v>0.05505911</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>f006addf-ff4c-43f9-b0ff-2f6ad86ec145.wav</t>
+        </is>
+      </c>
+      <c r="B847" t="n">
+        <v>0.05069013</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>f16c04a8-e181-46eb-8259-484e438046aa.wav</t>
+        </is>
+      </c>
+      <c r="B848" t="n">
+        <v>0.08658165</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>f13db215-b5fa-46b2-a754-811c5422b97b.wav</t>
+        </is>
+      </c>
+      <c r="B849" t="n">
+        <v>0.10504578</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>f132c1d9-9e54-49a6-a787-2494779fde9b.wav</t>
+        </is>
+      </c>
+      <c r="B850" t="n">
+        <v>0.08578238000000001</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>f219bbcd-03f9-4d08-ab8b-4009fe4388a9.wav</t>
+        </is>
+      </c>
+      <c r="B851" t="n">
+        <v>0.1374098</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>f1fdd990-ed7a-4001-9400-a2b8efc0b05a.wav</t>
+        </is>
+      </c>
+      <c r="B852" t="n">
+        <v>0.15880932</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>f271c336-8097-418a-b8d2-ce6b38b951db.wav</t>
+        </is>
+      </c>
+      <c r="B853" t="n">
+        <v>0.054606337</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>f1ba9fd3-2ffe-4f7c-9f4b-49dd4deb77fa.wav</t>
+        </is>
+      </c>
+      <c r="B854" t="n">
+        <v>0.091573164</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>f1c2479f-fcb7-4d14-80e2-aaf70b12c147.wav</t>
+        </is>
+      </c>
+      <c r="B855" t="n">
+        <v>0.10512241</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>f34ed2ec-3197-4e0e-81e0-15e3bf1251d1.wav</t>
+        </is>
+      </c>
+      <c r="B856" t="n">
+        <v>0.09817575000000001</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>f3ad2464-1d70-48f0-86e3-4ff30d4624b9.wav</t>
+        </is>
+      </c>
+      <c r="B857" t="n">
+        <v>0.07825355000000001</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>f3f6cbdf-b713-476d-9f3d-97f575f5cf85.wav</t>
+        </is>
+      </c>
+      <c r="B858" t="n">
+        <v>0.06564119</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>f257e1dc-285b-4bd0-9576-627eec482d6c.wav</t>
+        </is>
+      </c>
+      <c r="B859" t="n">
+        <v>0.16078839</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>f525a51e-d34d-4bbf-959d-a7b4b6f2fc1a.wav</t>
+        </is>
+      </c>
+      <c r="B860" t="n">
+        <v>0.19528466</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>f568d150-c9d1-4b80-852a-041812116949.wav</t>
+        </is>
+      </c>
+      <c r="B861" t="n">
+        <v>0.0431385</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>f52a44cd-7820-4e39-b460-459321c66118.wav</t>
+        </is>
+      </c>
+      <c r="B862" t="n">
+        <v>0.08451767</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>f2ee55f3-22ea-4c0d-b8cc-ecc0f0f28678.wav</t>
+        </is>
+      </c>
+      <c r="B863" t="n">
+        <v>0.15065247</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>f662a453-652b-4da0-9e5a-69e078d75cda.wav</t>
+        </is>
+      </c>
+      <c r="B864" t="n">
+        <v>0.08794183999999999</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>f679e076-4990-4863-9067-3eafe9ac2fbb.wav</t>
+        </is>
+      </c>
+      <c r="B865" t="n">
+        <v>0.13453953</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>f47aec69-be99-4dc1-997b-bac372ef31f2.wav</t>
+        </is>
+      </c>
+      <c r="B866" t="n">
+        <v>0.07712613</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>f638ccf4-4c06-4c5a-942e-16b1b83fa001.wav</t>
+        </is>
+      </c>
+      <c r="B867" t="n">
+        <v>0.17396915</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>f6afd933-08aa-434b-85e6-6bf37d867c6f.wav</t>
+        </is>
+      </c>
+      <c r="B868" t="n">
+        <v>0.094075695</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>f729715e-3598-4990-afd0-15b750ff6d5f.wav</t>
+        </is>
+      </c>
+      <c r="B869" t="n">
+        <v>0.09915446</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>f6fac3be-129b-46f3-9ed1-958be1b02bea.wav</t>
+        </is>
+      </c>
+      <c r="B870" t="n">
+        <v>0.06664981</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>f7c44c9d-d82f-41b2-af05-6d7abf806ba3.wav</t>
+        </is>
+      </c>
+      <c r="B871" t="n">
+        <v>0.12629077</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>f79c8116-9333-4599-aed2-c245b05108e8.wav</t>
+        </is>
+      </c>
+      <c r="B872" t="n">
+        <v>0.0840523</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>f8a63a2e-02c0-4716-bb69-280822cf3a99.wav</t>
+        </is>
+      </c>
+      <c r="B873" t="n">
+        <v>0.11303972</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>f730d9f6-7098-4889-9a74-b4771d513f62.wav</t>
+        </is>
+      </c>
+      <c r="B874" t="n">
+        <v>0.10843222</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>f999ce85-fb4c-4376-bf65-76cede0310f7.wav</t>
+        </is>
+      </c>
+      <c r="B875" t="n">
+        <v>0.17219546</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>f8441796-b9ce-4cc5-a14b-0b39395cf16d.wav</t>
+        </is>
+      </c>
+      <c r="B876" t="n">
+        <v>0.12319818</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>fa0d7337-f23b-4796-a89b-c1eddaeced0a.wav</t>
+        </is>
+      </c>
+      <c r="B877" t="n">
+        <v>0.11863433</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>f8e84cca-2030-4c7e-9ea9-3ccc904c2a3c.wav</t>
+        </is>
+      </c>
+      <c r="B878" t="n">
+        <v>0.06817083</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>f3d00043-f318-4a1e-9d78-1aa5f048e12d.wav</t>
+        </is>
+      </c>
+      <c r="B879" t="n">
+        <v>0.13292114</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>fabf0698-4509-483f-b443-42ba16ddfad7.wav</t>
+        </is>
+      </c>
+      <c r="B880" t="n">
+        <v>0.07945629</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>f8f4c404-6c2d-4df6-93b0-797a96197108.wav</t>
+        </is>
+      </c>
+      <c r="B881" t="n">
+        <v>0.096868575</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>fa6bbfa8-04f0-4765-8c96-32962f05108d.wav</t>
+        </is>
+      </c>
+      <c r="B882" t="n">
+        <v>0.09711443</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>fb4c5a8d-adaa-46a6-83d2-a7a9e8a61e93.wav</t>
+        </is>
+      </c>
+      <c r="B883" t="n">
+        <v>0.21012995</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>f60b066f-aed7-4ecb-9e09-580d16cacbdb.wav</t>
+        </is>
+      </c>
+      <c r="B884" t="n">
+        <v>0.114837945</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>fc58cdb6-097b-40a7-ab02-0d2eeb79058e.wav</t>
+        </is>
+      </c>
+      <c r="B885" t="n">
+        <v>0.10299435</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>fcbf3a05-9c58-4077-940a-48d2f3371284.wav</t>
+        </is>
+      </c>
+      <c r="B886" t="n">
+        <v>0.10389574</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>f6926c31-1be0-4c16-811f-01c12d44e783.wav</t>
+        </is>
+      </c>
+      <c r="B887" t="n">
+        <v>0.058702637</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>faa66b2e-a5b8-43c0-af2d-e256c4b14255.wav</t>
+        </is>
+      </c>
+      <c r="B888" t="n">
+        <v>0.16027085</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>fdb8269d-8de0-4ad3-a061-aced28e50ee8.wav</t>
+        </is>
+      </c>
+      <c r="B889" t="n">
+        <v>0.0628005</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>fe7bc3e1-9476-4abc-b830-abfa2ae5fcf4.wav</t>
+        </is>
+      </c>
+      <c r="B890" t="n">
+        <v>0.07193782999999999</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>fb7693a2-5b64-4614-a407-eec5e227e52e.wav</t>
+        </is>
+      </c>
+      <c r="B891" t="n">
+        <v>0.08255398999999999</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>fe398ea2-13cd-4116-8618-84d5a70fe6ca.wav</t>
+        </is>
+      </c>
+      <c r="B892" t="n">
+        <v>0.078957446</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>fe22678e-cab1-48e5-aad8-95e7a2328225.wav</t>
+        </is>
+      </c>
+      <c r="B893" t="n">
+        <v>0.09896681</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>f6f47dff-982c-4af6-95db-47e74b6368c0.wav</t>
+        </is>
+      </c>
+      <c r="B894" t="n">
+        <v>0.11725876</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>ff5101a9-41b4-4585-9d2d-b5dae0d56907.wav</t>
+        </is>
+      </c>
+      <c r="B895" t="n">
+        <v>0.11692087</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>fd026e1c-c98c-4637-8137-9154aec07562.wav</t>
+        </is>
+      </c>
+      <c r="B896" t="n">
+        <v>0.11092998</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>fee00647-8eac-456c-b544-63d6407038dd.wav</t>
+        </is>
+      </c>
+      <c r="B897" t="n">
+        <v>0.083981335</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>yuyin_10_1.wav</t>
+        </is>
+      </c>
+      <c r="B898" t="n">
+        <v>0.38273114</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>fc0c6173-1b81-416f-af22-65ab8495d5a4.wav</t>
+        </is>
+      </c>
+      <c r="B899" t="n">
+        <v>0.13851835</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>yuyin_10_2.wav</t>
+        </is>
+      </c>
+      <c r="B900" t="n">
+        <v>0.37530804</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>yuyin_10_3.wav</t>
+        </is>
+      </c>
+      <c r="B901" t="n">
+        <v>0.38408256</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>feec9365-4d58-4b99-9981-67d29ed17c5b.wav</t>
+        </is>
+      </c>
+      <c r="B902" t="n">
+        <v>0.13991506</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>yuyin_10_6.wav</t>
+        </is>
+      </c>
+      <c r="B903" t="n">
+        <v>0.37216938</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>yuyin_10_4.wav</t>
+        </is>
+      </c>
+      <c r="B904" t="n">
+        <v>0.37351757</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>yuyin_10_8.wav</t>
+        </is>
+      </c>
+      <c r="B905" t="n">
+        <v>0.38441253</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>yuyin_10_9.wav</t>
+        </is>
+      </c>
+      <c r="B906" t="n">
+        <v>0.37807167</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>fd69855c-e875-4cca-afb3-34e33159d17a.wav</t>
+        </is>
+      </c>
+      <c r="B907" t="n">
+        <v>0.14944205</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>yuyin_1_10.wav</t>
+        </is>
+      </c>
+      <c r="B908" t="n">
+        <v>0.3351205</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>yuyin_1_1.wav</t>
+        </is>
+      </c>
+      <c r="B909" t="n">
+        <v>0.32513875</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>yuyin_1_2.wav</t>
+        </is>
+      </c>
+      <c r="B910" t="n">
+        <v>0.31885126</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>yuyin_1_3.wav</t>
+        </is>
+      </c>
+      <c r="B911" t="n">
+        <v>0.32895428</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>yuyin_1_4.wav</t>
+        </is>
+      </c>
+      <c r="B912" t="n">
+        <v>0.32176638</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>ffa2096c-e7b4-4253-8692-d89b87b6224a.wav</t>
+        </is>
+      </c>
+      <c r="B913" t="n">
+        <v>0.17867036</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>yuyin_1_5.wav</t>
+        </is>
+      </c>
+      <c r="B914" t="n">
+        <v>0.3327518</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>yuyin_1_6.wav</t>
+        </is>
+      </c>
+      <c r="B915" t="n">
+        <v>0.31845602</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>yuyin_10_10.wav</t>
+        </is>
+      </c>
+      <c r="B916" t="n">
+        <v>0.3850633</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>yuyin_1_7.wav</t>
+        </is>
+      </c>
+      <c r="B917" t="n">
+        <v>0.31728202</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>yuyin_10_5.wav</t>
+        </is>
+      </c>
+      <c r="B918" t="n">
+        <v>0.3779408</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>yuyin_1_8.wav</t>
+        </is>
+      </c>
+      <c r="B919" t="n">
+        <v>0.32713747</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>yuyin_1_9.wav</t>
+        </is>
+      </c>
+      <c r="B920" t="n">
+        <v>0.31991774</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>yuyin_10_7.wav</t>
+        </is>
+      </c>
+      <c r="B921" t="n">
+        <v>0.38351905</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>yuyin_2_10.wav</t>
+        </is>
+      </c>
+      <c r="B922" t="n">
+        <v>0.32176933</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>yuyin_2_1.wav</t>
+        </is>
+      </c>
+      <c r="B923" t="n">
+        <v>0.30336735</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>yuyin_2_2.wav</t>
+        </is>
+      </c>
+      <c r="B924" t="n">
+        <v>0.30242476</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>yuyin_2_3.wav</t>
+        </is>
+      </c>
+      <c r="B925" t="n">
+        <v>0.3154019</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>yuyin_2_4.wav</t>
+        </is>
+      </c>
+      <c r="B926" t="n">
+        <v>0.29805654</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>yuyin_2_5.wav</t>
+        </is>
+      </c>
+      <c r="B927" t="n">
+        <v>0.30809003</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>yuyin_2_6.wav</t>
+        </is>
+      </c>
+      <c r="B928" t="n">
+        <v>0.29384768</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>yuyin_2_7.wav</t>
+        </is>
+      </c>
+      <c r="B929" t="n">
+        <v>0.30772966</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>yuyin_2_8.wav</t>
+        </is>
+      </c>
+      <c r="B930" t="n">
+        <v>0.31446797</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>yuyin_2_9.wav</t>
+        </is>
+      </c>
+      <c r="B931" t="n">
+        <v>0.30469304</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>yuyin_3_10.wav</t>
+        </is>
+      </c>
+      <c r="B932" t="n">
+        <v>0.3469317</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>yuyin_3_1.wav</t>
+        </is>
+      </c>
+      <c r="B933" t="n">
+        <v>0.34723467</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>yuyin_3_2.wav</t>
+        </is>
+      </c>
+      <c r="B934" t="n">
+        <v>0.3402228</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>yuyin_3_3.wav</t>
+        </is>
+      </c>
+      <c r="B935" t="n">
+        <v>0.34773183</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>yuyin_3_4.wav</t>
+        </is>
+      </c>
+      <c r="B936" t="n">
+        <v>0.33657768</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>yuyin_3_6.wav</t>
+        </is>
+      </c>
+      <c r="B937" t="n">
+        <v>0.33772182</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>yuyin_3_5.wav</t>
+        </is>
+      </c>
+      <c r="B938" t="n">
+        <v>0.3440171</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>yuyin_3_7.wav</t>
+        </is>
+      </c>
+      <c r="B939" t="n">
+        <v>0.34604484</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>yuyin_3_8.wav</t>
+        </is>
+      </c>
+      <c r="B940" t="n">
+        <v>0.34188005</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>yuyin_3_9.wav</t>
+        </is>
+      </c>
+      <c r="B941" t="n">
+        <v>0.33754689</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>yuyin_4_10.wav</t>
+        </is>
+      </c>
+      <c r="B942" t="n">
+        <v>0.36385065</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>yuyin_4_2.wav</t>
+        </is>
+      </c>
+      <c r="B943" t="n">
+        <v>0.35341507</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>yuyin_4_3.wav</t>
+        </is>
+      </c>
+      <c r="B944" t="n">
+        <v>0.363475</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>yuyin_4_4.wav</t>
+        </is>
+      </c>
+      <c r="B945" t="n">
+        <v>0.35869542</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>yuyin_4_7.wav</t>
+        </is>
+      </c>
+      <c r="B946" t="n">
+        <v>0.36265427</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>yuyin_4_1.wav</t>
+        </is>
+      </c>
+      <c r="B947" t="n">
+        <v>0.3659383</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>yuyin_4_5.wav</t>
+        </is>
+      </c>
+      <c r="B948" t="n">
+        <v>0.36841884</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>yuyin_4_8.wav</t>
+        </is>
+      </c>
+      <c r="B949" t="n">
+        <v>0.3727477</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>yuyin_4_9.wav</t>
+        </is>
+      </c>
+      <c r="B950" t="n">
+        <v>0.35425922</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>yuyin_4_6.wav</t>
+        </is>
+      </c>
+      <c r="B951" t="n">
+        <v>0.35023966</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>yuyin_5_10.wav</t>
+        </is>
+      </c>
+      <c r="B952" t="n">
+        <v>0.37052238</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>yuyin_5_1.wav</t>
+        </is>
+      </c>
+      <c r="B953" t="n">
+        <v>0.360439</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>yuyin_5_2.wav</t>
+        </is>
+      </c>
+      <c r="B954" t="n">
+        <v>0.36412156</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>yuyin_5_3.wav</t>
+        </is>
+      </c>
+      <c r="B955" t="n">
+        <v>0.37022594</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>yuyin_5_4.wav</t>
+        </is>
+      </c>
+      <c r="B956" t="n">
+        <v>0.3587511</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>yuyin_5_5.wav</t>
+        </is>
+      </c>
+      <c r="B957" t="n">
+        <v>0.36237532</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>yuyin_5_6.wav</t>
+        </is>
+      </c>
+      <c r="B958" t="n">
+        <v>0.3509063</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>yuyin_5_7.wav</t>
+        </is>
+      </c>
+      <c r="B959" t="n">
+        <v>0.36155793</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>yuyin_5_8.wav</t>
+        </is>
+      </c>
+      <c r="B960" t="n">
+        <v>0.36563626</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>yuyin_5_9.wav</t>
+        </is>
+      </c>
+      <c r="B961" t="n">
+        <v>0.354715</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>yuyin_6_10.wav</t>
+        </is>
+      </c>
+      <c r="B962" t="n">
+        <v>0.34986454</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>yuyin_6_1.wav</t>
+        </is>
+      </c>
+      <c r="B963" t="n">
+        <v>0.3477273</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>yuyin_6_2.wav</t>
+        </is>
+      </c>
+      <c r="B964" t="n">
+        <v>0.3518657</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>yuyin_6_3.wav</t>
+        </is>
+      </c>
+      <c r="B965" t="n">
+        <v>0.3554973</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>yuyin_6_4.wav</t>
+        </is>
+      </c>
+      <c r="B966" t="n">
+        <v>0.35114506</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>yuyin_6_5.wav</t>
+        </is>
+      </c>
+      <c r="B967" t="n">
+        <v>0.35254973</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>yuyin_6_6.wav</t>
+        </is>
+      </c>
+      <c r="B968" t="n">
+        <v>0.34497404</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>yuyin_6_7.wav</t>
+        </is>
+      </c>
+      <c r="B969" t="n">
+        <v>0.35023013</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>yuyin_6_8.wav</t>
+        </is>
+      </c>
+      <c r="B970" t="n">
+        <v>0.35168198</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>yuyin_6_9.wav</t>
+        </is>
+      </c>
+      <c r="B971" t="n">
+        <v>0.34938502</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>yuyin_7_10.wav</t>
+        </is>
+      </c>
+      <c r="B972" t="n">
+        <v>0.37447375</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>yuyin_7_1.wav</t>
+        </is>
+      </c>
+      <c r="B973" t="n">
+        <v>0.35554194</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>yuyin_7_2.wav</t>
+        </is>
+      </c>
+      <c r="B974" t="n">
+        <v>0.3606068</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>yuyin_7_3.wav</t>
+        </is>
+      </c>
+      <c r="B975" t="n">
+        <v>0.3714758</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>yuyin_7_4.wav</t>
+        </is>
+      </c>
+      <c r="B976" t="n">
+        <v>0.35954455</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>yuyin_7_5.wav</t>
+        </is>
+      </c>
+      <c r="B977" t="n">
+        <v>0.36351392</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>yuyin_7_6.wav</t>
+        </is>
+      </c>
+      <c r="B978" t="n">
+        <v>0.35619798</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>yuyin_7_7.wav</t>
+        </is>
+      </c>
+      <c r="B979" t="n">
+        <v>0.36990947</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>yuyin_7_8.wav</t>
+        </is>
+      </c>
+      <c r="B980" t="n">
+        <v>0.37079576</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>yuyin_7_9.wav</t>
+        </is>
+      </c>
+      <c r="B981" t="n">
+        <v>0.36358604</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>yuyin_8_10.wav</t>
+        </is>
+      </c>
+      <c r="B982" t="n">
+        <v>0.33279178</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>yuyin_8_1.wav</t>
+        </is>
+      </c>
+      <c r="B983" t="n">
+        <v>0.32004744</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>yuyin_8_2.wav</t>
+        </is>
+      </c>
+      <c r="B984" t="n">
+        <v>0.31327683</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>yuyin_8_3.wav</t>
+        </is>
+      </c>
+      <c r="B985" t="n">
+        <v>0.32282245</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>yuyin_8_4.wav</t>
+        </is>
+      </c>
+      <c r="B986" t="n">
+        <v>0.31543207</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>yuyin_8_5.wav</t>
+        </is>
+      </c>
+      <c r="B987" t="n">
+        <v>0.32366958</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>yuyin_8_6.wav</t>
+        </is>
+      </c>
+      <c r="B988" t="n">
+        <v>0.31958374</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>yuyin_8_7.wav</t>
+        </is>
+      </c>
+      <c r="B989" t="n">
+        <v>0.32425347</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>yuyin_8_8.wav</t>
+        </is>
+      </c>
+      <c r="B990" t="n">
+        <v>0.31240714</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>yuyin_8_9.wav</t>
+        </is>
+      </c>
+      <c r="B991" t="n">
+        <v>0.3187136</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>yuyin_9_10.wav</t>
+        </is>
+      </c>
+      <c r="B992" t="n">
+        <v>0.33013576</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>yuyin_9_1.wav</t>
+        </is>
+      </c>
+      <c r="B993" t="n">
+        <v>0.32257962</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>yuyin_9_2.wav</t>
+        </is>
+      </c>
+      <c r="B994" t="n">
+        <v>0.32354438</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>yuyin_9_3.wav</t>
+        </is>
+      </c>
+      <c r="B995" t="n">
+        <v>0.32635236</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>yuyin_9_4.wav</t>
+        </is>
+      </c>
+      <c r="B996" t="n">
+        <v>0.3269968</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>yuyin_9_5.wav</t>
+        </is>
+      </c>
+      <c r="B997" t="n">
+        <v>0.32789963</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>yuyin_9_6.wav</t>
+        </is>
+      </c>
+      <c r="B998" t="n">
+        <v>0.31607708</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>yuyin_9_7.wav</t>
+        </is>
+      </c>
+      <c r="B999" t="n">
+        <v>0.32661057</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>yuyin_9_8.wav</t>
+        </is>
+      </c>
+      <c r="B1000" t="n">
+        <v>0.32700008</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>yuyin_9_9.wav</t>
+        </is>
+      </c>
+      <c r="B1001" t="n">
+        <v>0.33514598</v>
       </c>
     </row>
   </sheetData>
